--- a/src/LugaresRegistrados/Precios_Primeros_10.xlsx
+++ b/src/LugaresRegistrados/Precios_Primeros_10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7db1a7b7c9a42e2/Escritorio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Documents\6to Semestre\AppTurismoMain\App-turismo-frontend\src\LugaresRegistrados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_F5665FCA97D9AECF8A160B77FB14C3667C4C4019" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81C363B2-26BB-4904-9F32-7B36B11EF4B1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778C5B8E-EBEC-4D2A-84B4-D42D5BE6F064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="12863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="908">
   <si>
     <t>Nombre</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Billar Familiar EL PARQUE</t>
   </si>
   <si>
-    <t>Walmart Satélite</t>
-  </si>
-  <si>
     <t>Av. de la República 157, Tabacalera, Cuauhtémoc, 06030 Ciudad de México, CDMX</t>
   </si>
   <si>
@@ -88,9 +85,6 @@
     <t>Calle San Juan de Los Lagos y Calle Héroes de Nacozari, Ayutla, San Felipe de Jesús, Gustavo A. Madero, 07510 Ciudad de México, CDMX</t>
   </si>
   <si>
-    <t>Cto Centro Comercial 19, Cd. Satélite, 53100 Naucalpan de Juárez, Méx.</t>
-  </si>
-  <si>
     <t>Las QueSabrosas del Parque</t>
   </si>
   <si>
@@ -115,12 +109,6 @@
     <t>Fray Servando Teresa de Mier 647, Jardín Balbuena, Venustiano Carranza, 15900 Ciudad de México, CDMX</t>
   </si>
   <si>
-    <t>Petco Parque La Mexicana</t>
-  </si>
-  <si>
-    <t>Lomas de Santa Fe, Contadero, Cuajimalpa de Morelos, 01219 Ciudad de México, CDMX</t>
-  </si>
-  <si>
     <t>Ten-Pin Boliche</t>
   </si>
   <si>
@@ -145,12 +133,6 @@
     <t>Aragón 227, Álamos, Benito Juárez, 03400 Ciudad de México, CDMX</t>
   </si>
   <si>
-    <t>CANCHAS DE FUTBOL Y BASQUETBOL</t>
-  </si>
-  <si>
-    <t>Av. Toscanos SN, Isidro Fabela, Álvaro Obregón, 01160 Ciudad de México, CDMX</t>
-  </si>
-  <si>
     <t>Cantina La 20</t>
   </si>
   <si>
@@ -211,12 +193,6 @@
     <t>Av. de la Paz 14, San Ángel, Álvaro Obregón, 01000 Ciudad de México, CDMX</t>
   </si>
   <si>
-    <t>Walmart Lago de Guadalupe</t>
-  </si>
-  <si>
-    <t>Av Lago de Guadalupe s/n, San Pedro Barrientos, 54010 Tlalnepantla, Méx.</t>
-  </si>
-  <si>
     <t>Parker &amp; Lenox</t>
   </si>
   <si>
@@ -268,12 +244,6 @@
     <t>Av de Las Fuentes, Fuentes Brotantes, Tlalpan, 14410 Ciudad de México, CDMX</t>
   </si>
   <si>
-    <t>Petco Viveros Express</t>
-  </si>
-  <si>
-    <t>Av. Universidad 1525, Axotla, Álvaro Obregón, 01030 Ciudad de México, CDMX</t>
-  </si>
-  <si>
     <t>RUSH pool beer &amp; snack</t>
   </si>
   <si>
@@ -304,12 +274,6 @@
     <t>Centro Cultural Universitario. MUAC, Av. Insurgentes Sur 3000, C.U., Coyoacán, 04510 Ciudad de México, CDMX</t>
   </si>
   <si>
-    <t>Museo Real de Ontario</t>
-  </si>
-  <si>
-    <t>100 Queens Park, Toronto, ON M5S 2C6, Canadá</t>
-  </si>
-  <si>
     <t>La Herradura</t>
   </si>
   <si>
@@ -424,12 +388,6 @@
     <t>Ayuntamiento 37, San Pablo, Iztapalapa, 09000 Ciudad de México, CDMX</t>
   </si>
   <si>
-    <t>Deportivo Rebeca</t>
-  </si>
-  <si>
-    <t>Oro, 2da Amp Santiago Acahualtepec, Iztapalapa, 09609 Ciudad de México, CDMX</t>
-  </si>
-  <si>
     <t>Café Toscano Parque Mèxico</t>
   </si>
   <si>
@@ -550,12 +508,6 @@
     <t>Av. Universidad 644, Letran Valle, Benito Juárez, 03650 Ciudad de México, CDMX</t>
   </si>
   <si>
-    <t>Cerati Rock Bar</t>
-  </si>
-  <si>
-    <t>Av. Separadora Industrial 1947, Lima 15023, Perú</t>
-  </si>
-  <si>
     <t>Limantour</t>
   </si>
   <si>
@@ -670,12 +622,6 @@
     <t>Alejandro Dumas 7, Polanco, Polanco IV Secc, Miguel Hidalgo, 11550 Ciudad de México, CDMX</t>
   </si>
   <si>
-    <t>Walmart Pirules</t>
-  </si>
-  <si>
-    <t>Perif. Blvd. Manuel Ávila Camacho 2550, Colonia Fraccionamiento, Hab los Pirules, 54050 Valle De México, Méx.</t>
-  </si>
-  <si>
     <t>Balcón del Zócalo</t>
   </si>
   <si>
@@ -706,12 +652,6 @@
     <t>Eje 5 Oriente, Av. Javier Rojo Gómez 66, San Pablo, Iztapalapa, 09000 Ciudad de México, CDMX</t>
   </si>
   <si>
-    <t>Atlas Bowl</t>
-  </si>
-  <si>
-    <t>61 W Main St, Trumansburg, NY 14886, EE. UU.</t>
-  </si>
-  <si>
     <t>Starbucks Grand San Jerónimo</t>
   </si>
   <si>
@@ -832,12 +772,6 @@
     <t>Av. Ejército Nacional Mexicano 980, Polanco, Polanco I Secc, Miguel Hidalgo, 11510 Ciudad de México, CDMX</t>
   </si>
   <si>
-    <t>Walmart Universidad</t>
-  </si>
-  <si>
-    <t>Av. Universidad 936 A, Sta Cruz Atoyac, Benito Juárez, 03310 Ciudad de México, CDMX</t>
-  </si>
-  <si>
     <t>Mr Bunny Universidad</t>
   </si>
   <si>
@@ -1006,18 +940,6 @@
     <t>Cto Plaza Esmeralda 13, Bosque Esmeralda, 52937 Cdad. López Mateos, Méx.</t>
   </si>
   <si>
-    <t>Rockets Planet - Plaza Coacalco - Pizza, Boliche, Bar y Videojuegos.</t>
-  </si>
-  <si>
-    <t>Av. José López Portillo 220, Plaza coacalco, 55710 San Francisco Coacalco, Méx.</t>
-  </si>
-  <si>
-    <t>Walmart Paraíso Cuernavaca</t>
-  </si>
-  <si>
-    <t>Kiosco SC 3588, Libramiento El Diez Temixco, Morelos 144 Colonia, Miguel Hidalgo, 62585 Temixco, Mor.</t>
-  </si>
-  <si>
     <t>Los Arcos. Acueducto</t>
   </si>
   <si>
@@ -1184,22 +1106,1652 @@
   </si>
   <si>
     <t>República de Cuba 44, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06010 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Dairy Queen Santa Fe</t>
+  </si>
+  <si>
+    <t>Centro comercial, Vasco de Quiroga 3800, Santa Fe, Antigua totolalpa, Cuajimalpa de Morelos, 05109 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Las Brasileñas</t>
+  </si>
+  <si>
+    <t>República de Brasil 60, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06010 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>El Tule</t>
+  </si>
+  <si>
+    <t>Av. de la República 55-1A, Tabacalera, Cuauhtémoc, 06030 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Panda Café</t>
+  </si>
+  <si>
+    <t>Ventura G.Tena 231, Asturias, Cuauhtémoc, 06850 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>La Esquina del Té</t>
+  </si>
+  <si>
+    <t>Ámsterdam 55, Hipódromo Condesa, Cuauhtémoc, 06100 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Carnitas Parque Luna</t>
+  </si>
+  <si>
+    <t>Hamburgo 282, Juárez, Cuauhtémoc, 06740 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Pizzas los Gemelos</t>
+  </si>
+  <si>
+    <t>Margil 30, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06060 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>JoSelo Café</t>
+  </si>
+  <si>
+    <t>Av. Emilio Castelar 107-Local F, Polanco, Polanco IV Secc, Miguel Hidalgo, 11550 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>La Reyna del Bosque</t>
+  </si>
+  <si>
+    <t>Av. 510, Ex Ejido San Juan de Aragón, Gustavo A. Madero, 07919 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Tacos El Paisa</t>
+  </si>
+  <si>
+    <t>Av. 508 105A, San Juan de Aragón II Secc, Gustavo A. Madero, 07969 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Caravanserai</t>
+  </si>
+  <si>
+    <t>C. Orizaba 101, Roma Nte., Cuauhtémoc, 06700 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Martina Fonda Fina</t>
+  </si>
+  <si>
+    <t>Calle Gral. Juan Cano 61, San Miguel Chapultepec I Secc, Miguel Hidalgo, 11850 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Sakura</t>
+  </si>
+  <si>
+    <t>Eje Central Lázaro Cárdenas 13, Colonia Centro, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>La Milla</t>
+  </si>
+  <si>
+    <t>Calle Gral. Fco. Molinos del Campo 19-Local A, San Miguel Chapultepec I Secc, Miguel Hidalgo, 11850 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>La Capilla Restaurante &amp; Bar</t>
+  </si>
+  <si>
+    <t>Av. 5 de Mayo 39, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Pizzeria MALA SAÑA</t>
+  </si>
+  <si>
+    <t>Regina 49, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>La Isla Del Dragón</t>
+  </si>
+  <si>
+    <t>C. de Filomeno Mata 15, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Buffet Océano Cantonés</t>
+  </si>
+  <si>
+    <t>Isabel La Católica 6, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Casa Tassel</t>
+  </si>
+  <si>
+    <t>Córdoba 110, Roma Nte., Cuauhtémoc, 06700 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>ELA Gyros</t>
+  </si>
+  <si>
+    <t>La Morena 1112, casi esquina, Petén, Narvarte Poniente, Benito Juárez, 03020 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Ostionería juanito y queta</t>
+  </si>
+  <si>
+    <t>República de Uruguay 31, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Panda Express Terraza Coapa</t>
+  </si>
+  <si>
+    <t>Calz Acoxpa 610, Coapa, Equipamiento Plaza Coapa, Tlalpan, 14390 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Gong cha Centro Histórico CDMX</t>
+  </si>
+  <si>
+    <t>Calle de Motolinia 41, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>PLAZA TEPEYAC</t>
+  </si>
+  <si>
+    <t>Calz de Guadalupe 431, Guadalupe Tepeyac, Gustavo A. Madero, 07840 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Cachurro</t>
+  </si>
+  <si>
+    <t>Lorenzo Boturini 15, Del Parque, Cuauhtémoc, 15960 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Mariscos Tlaquepaque</t>
+  </si>
+  <si>
+    <t>Av Independencia 8, Colonia Centro, Centro, Cuauhtémoc, 06050 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Panda Express</t>
+  </si>
+  <si>
+    <t>Planta Baja, Av. P.º de la Reforma 77-Local 1-5, Tabacalera, Cuauhtémoc, 06030 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>África Mía Restaurante</t>
+  </si>
+  <si>
+    <t>Av. Miguel Ángel de Quevedo 830, La Concepción, Coyoacán, 04020 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Vips Colón</t>
+  </si>
+  <si>
+    <t>Ignacio Ramírez 15, San Rafael, Cuauhtémoc, 06470 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>La isla de los dragones</t>
+  </si>
+  <si>
+    <t>Calle de Motolinia 5, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Centro, CDMX</t>
+  </si>
+  <si>
+    <t>Taco Game</t>
+  </si>
+  <si>
+    <t>Av. Coyoacán 119, código 2, Col del Valle Nte, Benito Juárez, 03100 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Toks Misterios</t>
+  </si>
+  <si>
+    <t>Calz. de los Misterios 62 Colonia, Tepeyac Insurgentes, Gustavo A. Madero, 07300 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Gato Calavera</t>
+  </si>
+  <si>
+    <t>Xola 114, Álamos, Benito Juárez, 03400 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Maison Kayser Tacuba</t>
+  </si>
+  <si>
+    <t>Xicoténcatl 1, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Gamer Score: RESTAURANTE DE VIDEOJUEGOS y MAQUINITAS (Insurgentes Sur)</t>
+  </si>
+  <si>
+    <t>Av. Insurgentes Sur 1862, Florida, Álvaro Obregón, 01030 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Balboa Pizzería Cuauhtémoc</t>
+  </si>
+  <si>
+    <t>C. Río Lerma 94, Cuauhtémoc, 06500 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Vips San Rafael</t>
+  </si>
+  <si>
+    <t>Insurgentes Centro 67, San Rafael, Cuauhtémoc, 06470 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Sanborns Plaza Carso</t>
+  </si>
+  <si>
+    <t>C. Lago Zurich 245, Amp Granada, Miguel Hidalgo, 11529 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Hong King Restaurante Bar</t>
+  </si>
+  <si>
+    <t>Cjon. Dolores 25 A, Colonia Centro, Centro, Cuauhtémoc, 06050 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Marisquería el K-Guamo</t>
+  </si>
+  <si>
+    <t>Av Independencia 22, Colonia Centro, Centro, Cuauhtémoc, 06050 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>A Dios Le Pido</t>
+  </si>
+  <si>
+    <t>C. Génova 21, Juárez, Cuauhtémoc, 06600 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>RESTAURANTE BAR LAS PECOSAS</t>
+  </si>
+  <si>
+    <t>República de Cuba 23 - E, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06020 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Wokando Cocina Casual</t>
+  </si>
+  <si>
+    <t>C. Versalles 15, Juárez, Cuauhtémoc, 06600 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Lafricaine</t>
+  </si>
+  <si>
+    <t>Av Instituto Politécnico Nacional 5119, Capultitlan, Gustavo A. Madero, 07370 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Pan &amp; Anís (Antigua Casa del Chef)</t>
+  </si>
+  <si>
+    <t>C. Gobernador Rafael Rebollar 77, San Miguel Chapultepec I Secc, Miguel Hidalgo, 11850 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Domino's Kidzania Cd. de los Niños Cuicuilco</t>
+  </si>
+  <si>
+    <t>Av. San Fernando, Cjon. de Peña Pobre 649, Manantial Peña Pobre, Tlalpan, 14060 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Restaurante Acuario</t>
+  </si>
+  <si>
+    <t>Av. Belisario Domínguez 76, San Gregorio Atlapulco, Xochimilco, 16600 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>El Campirano Centro</t>
+  </si>
+  <si>
+    <t>Calle de Bolívar 20, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06040 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Wingstop Parque Alameda</t>
+  </si>
+  <si>
+    <t>La Fenicia Del Valle Sur</t>
+  </si>
+  <si>
+    <t>Patricio Sanz 1701-Local 1-A, Col del Valle Centro, Benito Juárez, 03100 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>El Puerto de Don Roque</t>
+  </si>
+  <si>
+    <t>Cjon. Canal 20, Merced Balbuena, Venustiano Carranza, 15810 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Distrito Urbano Centro</t>
+  </si>
+  <si>
+    <t>Av. 5 de Mayo 42, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>La Perla De La Roma</t>
+  </si>
+  <si>
+    <t>Av. Cuauhtémoc 35, La Romita, Roma Nte., Cuauhtémoc, 06700 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Cantina La Montañesa</t>
+  </si>
+  <si>
+    <t>C. de la Palma 9 A, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Maison Kayser Reforma 408</t>
+  </si>
+  <si>
+    <t>Av. P.º de la Reforma 408, Juárez, Cuauhtémoc, 06600 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Doncella Café</t>
+  </si>
+  <si>
+    <t>Ezequiel Montes 73, Tabacalera, Cuauhtémoc, 06030 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>El Sheik</t>
+  </si>
+  <si>
+    <t>C. Madrid 129, Del Carmen, Coyoacán, 04109 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Restaurant Ehden</t>
+  </si>
+  <si>
+    <t>C. de Venustiano Carranza 148-Piso 1, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>El Palomazo Bar &amp; Canto</t>
+  </si>
+  <si>
+    <t>Av. Universidad 348, Narvarte Poniente, Benito Juárez, 03023 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Los Sirenos Mariscos</t>
+  </si>
+  <si>
+    <t>06000, 2ᵃ Calle de Ernesto Pugibet 21-LOCAL 280, 281 y 282, Colonia Centro, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Restaurante Carnivurus sucursal Iztacalco</t>
+  </si>
+  <si>
+    <t>Playa Encantada 154, Militar Marte, Iztacalco, 08830 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Restaurante 5 Portes</t>
+  </si>
+  <si>
+    <t>Calz. Manuel Villalongín 157, Cuauhtémoc, 06500 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Estrela Do Sul México</t>
+  </si>
+  <si>
+    <t>Av. Revolución 1382, Guadalupe Inn, Álvaro Obregón, 01020 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>San Petter Clavería</t>
+  </si>
+  <si>
+    <t>Av. Cuitláhuac 3134-4, Claveria, Azcapotzalco, 02080 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>BraaiAsao Churrascaría</t>
+  </si>
+  <si>
+    <t>Calle 16 30, San Pedro de los Pinos, Álvaro Obregón, 01180 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Espadas Brasileñas De Boturini</t>
+  </si>
+  <si>
+    <t>Lorenzo Boturini 635, Jardín Balbuena, Venustiano Carranza, 15900 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Caipirinha Balbuena</t>
+  </si>
+  <si>
+    <t>Blvd. Puerto Aéreo 47, Ignacio Zaragoza, Venustiano Carranza, 15000 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Carvao do Brasil Oceanía Churrascaria</t>
+  </si>
+  <si>
+    <t>Av. del Peñón 355, Moctezuma 2da Secc, Venustiano Carranza, 15530 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Chambao Polanco</t>
+  </si>
+  <si>
+    <t>Av. Pdte. Masaryk 460, Polanco, Polanco III Secc, Miguel Hidalgo, 11550 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Havre 77</t>
+  </si>
+  <si>
+    <t>Havre 77, Juárez, Cuauhtémoc, 06600 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Botánico</t>
+  </si>
+  <si>
+    <t>Alfonso Reyes 217, Colonia Condesa, Cuauhtémoc, 06100 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Archiebald</t>
+  </si>
+  <si>
+    <t>JW Marriott Polanco entrada Campos Elíseos, Andrés Bello 29, Polanco, Polanco IV Secc, Miguel Hidalgo, 11560 CDMX</t>
+  </si>
+  <si>
+    <t>Ling Ling by Hakkasan</t>
+  </si>
+  <si>
+    <t>Av. P.º de la Reforma 509-Piso 56, Cuauhtémoc, 06500 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Ilios Polanco | Restaurante Griego</t>
+  </si>
+  <si>
+    <t>Av. Pdte. Masaryk 311, Polanco, Polanco IV Secc, Miguel Hidalgo, 11550 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Au Pied de Cochon</t>
+  </si>
+  <si>
+    <t>Campos Elíseos 218, Polanco, Miguel Hidalgo, 11560 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>The Capital Grille Ciudad de México</t>
+  </si>
+  <si>
+    <t>Av. P.º de la Reforma 250-Local 1G, Juárez, Cuauhtémoc, 06600 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Café De Tacuba</t>
+  </si>
+  <si>
+    <t>C. de Tacuba 28, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06010 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Skate Park Constituyentes</t>
+  </si>
+  <si>
+    <t>Av. de los Compositores 1505, Bosque de Chapultepec II Secc, Miguel Hidalgo, 11100 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Boliches AMF Insurgentes</t>
+  </si>
+  <si>
+    <t>Hermes 25, Crédito Constructor, Benito Juárez, 03940 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Plaza de la Constitución</t>
+  </si>
+  <si>
+    <t>P.za de la Constitución S/N, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06010 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Parque Recreativo Francisco I Madero</t>
+  </si>
+  <si>
+    <t>Morelos, Venustiano Carranza, 15270 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Ex Antigua Aduana</t>
+  </si>
+  <si>
+    <t>República de Brasil 31, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06020 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Aviario Moctezuma</t>
+  </si>
+  <si>
+    <t>Zoológico de Chapultepec, Calz. Chivatito 1, Bosque de Chapultepec I Secc, Miguel Hidalgo, 11580 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Museo Nacional De San Carlos</t>
+  </si>
+  <si>
+    <t>Av. México-Tenochtitlán 50, Tabacalera, Cuauhtémoc, 06030 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Le Petit Resto</t>
+  </si>
+  <si>
+    <t>San Antonio 100, Nápoles, Benito Juárez, 03840 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Parroquia de San Fernando</t>
+  </si>
+  <si>
+    <t>C. Guerrero 39, Centro Histórico de la Cdad. de México, Guerrero, Cuauhtémoc, 06300 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Aura Galerías | Juárez</t>
+  </si>
+  <si>
+    <t>Atenas 30, Juárez, Cuauhtémoc, 06600 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Museo Nacional De Arte (MUNAL)</t>
+  </si>
+  <si>
+    <t>C. de Tacuba 8, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Mi Compa Chava Marisquería</t>
+  </si>
+  <si>
+    <t>Zacatecas 172, Roma Nte., Cuauhtémoc, 06700 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Plaza Inn</t>
+  </si>
+  <si>
+    <t>Av. Insurgentes Sur 1971, Guadalupe Inn, Álvaro Obregón, 01020 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Arcade World Mx - GameX</t>
+  </si>
+  <si>
+    <t>Friki plaza Eje central SÓTANO L 28 y 29, Eje Central Lázaro Cárdenas 9-Local 240, Colonia Centro, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Templo de San Felipe Neri (La Profesa)</t>
+  </si>
+  <si>
+    <t>Isabel La Católica 21, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Pista de Hielo Santa Fe</t>
+  </si>
+  <si>
+    <t>Plaza Comercial, Vasco de Quiroga 1800, Santa Fe, Contadero, Cuajimalpa de Morelos, 05348 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>¡Creyendo lo Imposible! Primera Iglesia Bautista de la Ciudad de Mexico</t>
+  </si>
+  <si>
+    <t>Zarco 50, Guerrero, Cuauhtémoc, 06300 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Estatua Ecuestre de Carlos IV</t>
+  </si>
+  <si>
+    <t>C. de Tacuba 5, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06010 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Acuario paraíso</t>
+  </si>
+  <si>
+    <t>Av Chapultepec 8, Juárez, Cuauhtémoc, 06600 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Aqua Landscape</t>
+  </si>
+  <si>
+    <t>Local F, Morelos, Venustiano Carranza, 15270 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Museo del Templo Mayor</t>
+  </si>
+  <si>
+    <t>Seminario 8, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06060 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Alboa Patriotismo</t>
+  </si>
+  <si>
+    <t>Av. Patriotismo 229, San Pedro de los Pinos, Benito Juárez, 03810 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Planetario Luis Enrique Erro</t>
+  </si>
+  <si>
+    <t>Av. Wilfrido Massieu, Nueva Industrial Vallejo, Gustavo A. Madero, 07700 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Catedral Metropolitana de la Ciudad de México</t>
+  </si>
+  <si>
+    <t>P.za de la Constitución S/N, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Parque Tepeyac</t>
+  </si>
+  <si>
+    <t>Antigua Casa del General Porfirio Diaz</t>
+  </si>
+  <si>
+    <t>Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Aguafuerte Galería</t>
+  </si>
+  <si>
+    <t>Guanajuato 118, Roma Nte., Cuauhtémoc, 06700 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>TequeChévere</t>
+  </si>
+  <si>
+    <t>Guadalupe del Moral, Iztapalapa, 09300 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Club de Banqueros de México</t>
+  </si>
+  <si>
+    <t>16 de Septiembre 27, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Géiser Madero</t>
+  </si>
+  <si>
+    <t>Av. Juarez 24, Colonia Centro, Centro, Cuauhtémoc, 06050 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Jardín Botánico del Bosque de Chapultepec</t>
+  </si>
+  <si>
+    <t>Av. P.º de la Reforma 126, Bosque de Chapultepec I Secc, Miguel Hidalgo, 11580 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Plaza de la República</t>
+  </si>
+  <si>
+    <t>Av. de la República S/N, Tabacalera, Cuauhtémoc, 06030 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Aventuras Outdoor Archery</t>
+  </si>
+  <si>
+    <t>Dentro del Deportivo Morelos, Av. José María Castorena 545, Rosa Torres, Cuajimalpa de Morelos, 05200 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Templo de Santa Inés Mártir</t>
+  </si>
+  <si>
+    <t>Moneda 26, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>MUNDO DIVERTIDO</t>
+  </si>
+  <si>
+    <t>Hacienda del Rosario, Ex el Rosario, Azcapotzalco, 02420 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Monumento A San Juan Pablo II</t>
+  </si>
+  <si>
+    <t>Calle Monte de Piedad 303, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06060 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>GoTan Restaurante Centro Histórico</t>
+  </si>
+  <si>
+    <t>Estacionamiento público a un lado, Revillagigedo 18, entre Av. Juárez e Independencia, Colonia Centro, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Porter Steakhouse &amp; Seafood</t>
+  </si>
+  <si>
+    <t>Calle Julio Verne 102, Polanco, Polanco III Secc, Miguel Hidalgo, 11540 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Templo de Nuestra Señora de Lourdes</t>
+  </si>
+  <si>
+    <t>Calle de Bolívar 37, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Museo Manuel Tolsá</t>
+  </si>
+  <si>
+    <t>C. de Tacuba 7, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Centro, CDMX</t>
+  </si>
+  <si>
+    <t>Universum, Museo de las Ciencias</t>
+  </si>
+  <si>
+    <t>Circuito Cultural de Ciudad Universitaria S/N, Coyoacán, C.U., Coyoacán, 04510 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Palacio Nacional</t>
+  </si>
+  <si>
+    <t>P.za de la Constitución S/N, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06066 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Play Time Santa Fe</t>
+  </si>
+  <si>
+    <t>Vasco de Quiroga 3800, Santa Fe, Cuajimalpa, Cuajimalpa de Morelos, 05109 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Museo Franz Mayer</t>
+  </si>
+  <si>
+    <t>Av. Hidalgo 45, Centro Histórico de la Cdad. de México, Guerrero, Cuauhtémoc, 06300 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Estatua Josefa Ortiz De Domínguez (La Corregidora)</t>
+  </si>
+  <si>
+    <t>Acuario Las Güeras</t>
+  </si>
+  <si>
+    <t>Tlaloc y, Cda. Tonantzin 11, Tlaxpana, Miguel Hidalgo, 11370 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Jarisa Games</t>
+  </si>
+  <si>
+    <t>Eje Central Lázaro Cárdenas, Colonia Centro, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Palacio de Cultura Banamex - Palacio de Iturbide</t>
+  </si>
+  <si>
+    <t>Av Francisco I. Madero 17, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Jardín de Santiago</t>
+  </si>
+  <si>
+    <t>Av. Ricardo Flores Magón, Tlatelolco, Cuauhtémoc, 06900 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Monumento a Cuauhtémoc</t>
+  </si>
+  <si>
+    <t>Av. P.º de la Reforma S/N, Juárez, Cuauhtémoc, 06600 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Sonora Grill Reforma</t>
+  </si>
+  <si>
+    <t>Paseo de La Reforma Nte 1, Tabacalera, Cuauhtémoc, 06030 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>El Timón de Cortés</t>
+  </si>
+  <si>
+    <t>C. Dr. Enrique González Martínez, esquina con, Av. Ribera de San Cosme 5, Sta María la Ribera, Cuauhtémoc, 06400 Cuauhtémoc, CDMX</t>
+  </si>
+  <si>
+    <t>Karaoke Coreano</t>
+  </si>
+  <si>
+    <t>Londres 167, Juárez, Cuauhtémoc, 06600 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Papalote Museo del Niño</t>
+  </si>
+  <si>
+    <t>Av Constituyentes 268, Bosque de Chapultepec II Secc, Miguel Hidalgo, 11100 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>kurimanzutto</t>
+  </si>
+  <si>
+    <t>C. Gobernador Rafael Rebollar 94, San Miguel Chapultepec I Secc, Miguel Hidalgo, 11850 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Parque Bicentenario</t>
+  </si>
+  <si>
+    <t>Av. 5 de Mayo 290, Refinería 18 de Marzo, Miguel Hidalgo, 11210 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>XTREME GAMES PUI ARCADES</t>
+  </si>
+  <si>
+    <t>Av. Leyes de Reforma MZ137 LT1474, Leyes de Reforma 3ra Secc, Iztapalapa, 09310 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Templo de San Bernardo</t>
+  </si>
+  <si>
+    <t>20 de Noviembre 33, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Templo de Nuestra Señora de Loreto</t>
+  </si>
+  <si>
+    <t>San Ildefonso 80, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Parque España</t>
+  </si>
+  <si>
+    <t>Parque España, Colonia Condesa, Cuauhtémoc, 06140 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Aquí esta Texcoco</t>
+  </si>
+  <si>
+    <t>C. California 97, Parque San Andrés, Coyoacán, 04040 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Centro Histórico CDMX</t>
+  </si>
+  <si>
+    <t>Zócalo, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06060 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Stamina Games</t>
+  </si>
+  <si>
+    <t>Canal de Miramontes 3230, Coapa, Acoxpa, Tlalpan, 14300 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Estatua A Totoquihuatzin</t>
+  </si>
+  <si>
+    <t>C. de Filomeno Mata 6, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06040 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Museo Soumaya</t>
+  </si>
+  <si>
+    <t>Blvd. Miguel de Cervantes Saavedra, Granada, Miguel Hidalgo, 11529 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Monumento a Cristóbal Colón</t>
+  </si>
+  <si>
+    <t>Esq Buenavista, Heroes Ferrocarrileros sn, Buenavista, Cuauhtémoc, 06350 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Xitle</t>
+  </si>
+  <si>
+    <t>Tlalpan, 14760 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Parque Skate La Sede - Centro de Deporte Extremo</t>
+  </si>
+  <si>
+    <t>Calle 15 s/n, Iztapalapa, Calle 15 s/n, Iztapalapa, José López Portillo, Iztapalapa, 09920 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>La Pista Coyoacan</t>
+  </si>
+  <si>
+    <t>Av. Miguel Ángel de Quevedo 247, Romero de Terreros, Coyoacán, 04318 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Palacio Postal</t>
+  </si>
+  <si>
+    <t>C. de Tacuba 1, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Asado Brasil Plaza las Estrellas</t>
+  </si>
+  <si>
+    <t>11300, Verónica Anzúres, Miguel Hidalgo, 11300 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Palacio del Marqués del Apartado</t>
+  </si>
+  <si>
+    <t>Palacio del Marqués del Apartado, República de Argentina 12, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06020 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Mythos Estiatorio</t>
+  </si>
+  <si>
+    <t>Av. Isaac Newton 7, Polanco, Polanco IV Secc, Miguel Hidalgo, 11560 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Mariposario Chapultepec</t>
+  </si>
+  <si>
+    <t>CRF6+5H, Bosque de Chapultepec I Secc, Miguel Hidalgo, 11580 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Sala Interactiva de Astronomía</t>
+  </si>
+  <si>
+    <t>Av. Wilfrido Massieu 253, Nueva Industrial Vallejo, Gustavo A. Madero, 07738 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Parque Lincoln</t>
+  </si>
+  <si>
+    <t>Av. Emilio Castelar 163, Polanco, Polanco III Secc, Miguel Hidalgo, 11560 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Chaarm by 42</t>
+  </si>
+  <si>
+    <t>Av. Tamaulipas 130, Hipódromo, Cuauhtémoc, 06100 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>TEMPLO CDMX</t>
+  </si>
+  <si>
+    <t>C. Artículo 123 15, Colonia Centro, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Tepeyac hill sightsee point</t>
+  </si>
+  <si>
+    <t>Cerro de Guerrero, Gustavo A. Madero, 07060 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Terraza karaoke</t>
+  </si>
+  <si>
+    <t>Av Chapultepec 400, Roma Nte., Cuauhtémoc, 06700 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Saudade Do Brazil</t>
+  </si>
+  <si>
+    <t>Anaxágoras 743, Narvarte Poniente, Benito Juárez, 03020 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Zoológico San Juan de Aragón</t>
+  </si>
+  <si>
+    <t>Av. José Loreto Fabela S/N, Zoológico de San Juan de Aragón, Gustavo A. Madero, 07920 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Canta Bar London Karaoke</t>
+  </si>
+  <si>
+    <t>Londres 167 3piso entre calle florencia ロンドン, Juárez, Cuauhtémoc, 06600 juarez, CDMX</t>
+  </si>
+  <si>
+    <t>MIDE, Museo Interactivo de Economía</t>
+  </si>
+  <si>
+    <t>Sendero del Jaguar</t>
+  </si>
+  <si>
+    <t>Zoológico de San Juan de Aragón, Gustavo A. Madero, 07920 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>INBA Museo Nacional de Arquitectura</t>
+  </si>
+  <si>
+    <t>Av. Juarez 1, Colonia Centro, Centro, Cuauhtémoc, 06050 Cuahtemoc, CDMX</t>
+  </si>
+  <si>
+    <t>Parque Masayoshi Ohira</t>
+  </si>
+  <si>
+    <t>Corredores, Country Club Churubusco, Coyoacán, 04220 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Bowlero Polanco</t>
+  </si>
+  <si>
+    <t>Juan Vazquez de Mella 315, Polanco, Chapultepec Morales, Miguel Hidalgo, 11560 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Pizza Felix</t>
+  </si>
+  <si>
+    <t>Av. Álvaro Obregón 64, Roma Nte., Cuauhtémoc, 06700 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Museo de Cera</t>
+  </si>
+  <si>
+    <t>Londres 6, Juárez, Cuauhtémoc, 06600 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Monte Cristo</t>
+  </si>
+  <si>
+    <t>Av. Insurgentes Nte. 1980, Lindavista, Gustavo A. Madero, 07300 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Museo Nacional de Historia Castillo de Chapultepec</t>
+  </si>
+  <si>
+    <t>Bosque de Chapultepec I Secc, Miguel Hidalgo, 11580 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Reloj Otomano</t>
+  </si>
+  <si>
+    <t>Parque Xalli</t>
+  </si>
+  <si>
+    <t>Camino al Tetecon, Tetecontitlan s/n, San Miguel Zapotitla, Tláhuac, 13310 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Monumento a Colón</t>
+  </si>
+  <si>
+    <t>Monumento a Cristóbal Colón, Monumento a Cristóbal Colón, Av. P.º de la Reforma 96, Tabacalera, Cuauhtémoc, 06600 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>¡Recórcholis! Fórum Buenavista</t>
+  </si>
+  <si>
+    <t>Eje 1 Nte. 259, Buenavista, Cuauhtémoc, 06350 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Templo Hare Krishna Mexico D.F.</t>
+  </si>
+  <si>
+    <t>Gobernador Tiburcio Montiel 45, San Miguel Chapultepec I Secc, Miguel Hidalgo, 11850 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>TERRAZA CORONELA</t>
+  </si>
+  <si>
+    <t>C. Valentín Gómez Farías 2-piso 5, Tabacalera, Cuauhtémoc, 06030 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>LA OPERA</t>
+  </si>
+  <si>
+    <t>Av. 5 de Mayo 10, Centro Histórico de la Cdad. de México, de la, Cuauhtémoc, 06000 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Galería Hilario Galguera</t>
+  </si>
+  <si>
+    <t>C. Francisco Pimentel 3, San Rafael, Cuauhtémoc, 06470 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Museo Palacio Postal</t>
+  </si>
+  <si>
+    <t>ROCA ENTERPRISES</t>
+  </si>
+  <si>
+    <t>Av Constituyentes 5, San Miguel Chapultepec II Secc, Miguel Hidalgo, 11850 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Mog Bistro</t>
+  </si>
+  <si>
+    <t>Frontera 168, Roma Nte., Cuauhtémoc, 06700 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>JAYI Restaurante</t>
+  </si>
+  <si>
+    <t>Medellín 81, Roma Nte., Cuauhtémoc, 06700 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Phoenix Arcades</t>
+  </si>
+  <si>
+    <t>Av. Cuauhtémoc 19, Roma Nte., Cuauhtémoc, 06700 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Sabor do Brasil Misterios</t>
+  </si>
+  <si>
+    <t>Av. Río Blanco 27, Industrial, Gustavo A. Madero, 07800 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Hemiciclo a Benito Juárez</t>
+  </si>
+  <si>
+    <t>Av. Juarez 50, Colonia Centro, Centro, Cuauhtémoc, 06050 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Ice Mountain RENTA de Pistas de Hielo temporales.</t>
+  </si>
+  <si>
+    <t>Viad. Tlalpan 28, Coapa, Huipulco, Tlalpan, 14370 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Ex Templo de Corpus Christi</t>
+  </si>
+  <si>
+    <t>Av. Juarez 44, Colonia Centro, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Zona gamers 2.0</t>
+  </si>
+  <si>
+    <t>Eje central 9 Frikiplaza 4 piso local 412, Colonia Centro, Centro, Cuauhtémoc, 01000 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Jardín Louis Pasteur</t>
+  </si>
+  <si>
+    <t>Av. P.º de la Reforma 135, Tabacalera, Cuauhtémoc, 06030 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Casa de los Azulejos</t>
+  </si>
+  <si>
+    <t>Av Francisco I. Madero 4, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06500 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Templo de Nuestra Señora de Guadalupe (Buen Tono)</t>
+  </si>
+  <si>
+    <t>Plaza de San Juan 15, Colonia Centro, Centro, Cuauhtémoc, 06070 Cuauhtémoc, CDMX</t>
+  </si>
+  <si>
+    <t>Acuario Interactivo</t>
+  </si>
+  <si>
+    <t>C. Lago Zurich 386, Granada, Miguel Hidalgo, 11529 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Skatepark San Antonio Abad</t>
+  </si>
+  <si>
+    <t>Tránsito, Cuauhtémoc, 06820 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Parroquia de San Juan de Dios</t>
+  </si>
+  <si>
+    <t>Av. Hidalgo 51, Centro Histórico de la Cdad. de México, Guerrero, Cuauhtémoc, 06300 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Sal e Brasa</t>
+  </si>
+  <si>
+    <t>Av. de los Insurgentes Sur 744, Col. Del Valle, Benito Juárez, 03103 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Centro Roller CDMX</t>
+  </si>
+  <si>
+    <t>Av. Insurgentes Sur 375-B, Hipódromo Condesa, Cuauhtémoc, 06100 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Templo de San Agustín de Hipona</t>
+  </si>
+  <si>
+    <t>República de El Salvador 76, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Bistró Chapultepec</t>
+  </si>
+  <si>
+    <t>Calle Lago Mayor S/N, 2ª Sección del Bosque de Chapultepec, Bosque de Chapultepec II Secc, Miguel Hidalgo, 11040 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Librerías El Sótano Bellas Artes</t>
+  </si>
+  <si>
+    <t>Av. Juarez 20, Colonia Centro, Centro, Cuauhtémoc, 06050 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Basílica de San José y Nuestra Señora del Sagrado Corazón</t>
+  </si>
+  <si>
+    <t>Ayuntamiento 29, Colonia Centro, Centro, Cuauhtémoc, 06050 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>TEMPLO EVANGÉLICO "ROSTRO DE DIOS" MIEPI CENTRAL</t>
+  </si>
+  <si>
+    <t>Cda. Carretones 123, La Merced, Centro, Venustiano Carranza, 15100 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Museo de Arte Popular</t>
+  </si>
+  <si>
+    <t>Revillagigedo 11, Colonia Centro, Centro, Cuauhtémoc, 06050 Cuauhtémoc, CDMX</t>
+  </si>
+  <si>
+    <t>Templo de Santo Domingo de Guzmán</t>
+  </si>
+  <si>
+    <t>Belisario Domínguez S/N, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06010 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Cantina Las Bohemias</t>
+  </si>
+  <si>
+    <t>Londres 142-1, Juárez, Cuauhtémoc, 06600 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>¡Kataplum!</t>
+  </si>
+  <si>
+    <t>Av. Canal de Garay 3278-3er piso, Tulyehualco Canal de Garay, Iztapalapa, 09910 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>La Pista</t>
+  </si>
+  <si>
+    <t>Centro Comercial Paseo Interlomas Vialidad de la barranca 6 PH-01 Interlomas Huixquilucan, Manzana 003, Col. Ex Hacienda Jesús del Monte, Bosque de las Palmas, 52763 Naucalpan de Juárez, Méx.</t>
+  </si>
+  <si>
+    <t>Bar Oriente</t>
+  </si>
+  <si>
+    <t>Dgo. 181, Roma Nte., Cuauhtémoc, 06700 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>ACUARIO ROSARIO</t>
+  </si>
+  <si>
+    <t>Herreros 1, El Rosario, Azcapotzalco, 02100 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Altar a la Patria</t>
+  </si>
+  <si>
+    <t>Bosque de Chapultepec I, Bosque de Chapultepec I Secc, Miguel Hidalgo, 11580 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Bosque de Chapultepec</t>
+  </si>
+  <si>
+    <t>Miguel Hidalgo, Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Museo del Palacio de Bellas Artes</t>
+  </si>
+  <si>
+    <t>Av. Juárez s/n esq, Eje Central Lázaro Cárdenas Col, Colonia Centro, Centro, Cuauhtémoc, 06050 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Librerías Gandhi</t>
+  </si>
+  <si>
+    <t>Av Francisco I. Madero 32, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Casa De Arte</t>
+  </si>
+  <si>
+    <t>Ignacio Allende 3, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06010 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Cosmovitral Jardín Botánico</t>
+  </si>
+  <si>
+    <t>Av. Sebastián Lerdo de Tejada S/N, Centro, 50000 Toluca de Lerdo, Méx.</t>
+  </si>
+  <si>
+    <t>2do Mirador - Los Columpios</t>
+  </si>
+  <si>
+    <t>6RX2+7G, Tlalpan, 14700 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Arena Sports Bar</t>
+  </si>
+  <si>
+    <t>Oso 73-Local 284, Actipan, Benito Juárez, 03230 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Jardín San Miguel</t>
+  </si>
+  <si>
+    <t>José María Izazaga 140, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06090 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Arena CDMX</t>
+  </si>
+  <si>
+    <t>Av. de las Granjas 800, Santa Barbara, Azcapotzalco, 02230 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Templo Mayor de México-Tenochtitlan</t>
+  </si>
+  <si>
+    <t>República de Guatemala 60, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06060 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Jardin Alejandro Flores</t>
+  </si>
+  <si>
+    <t>Av. P.º de la Reforma, Guerrero, Cuauhtémoc, 06300 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Zinco Jazz Club</t>
+  </si>
+  <si>
+    <t>Calle de Motolinia 20, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06050 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Terraza Homework</t>
+  </si>
+  <si>
+    <t>Pl. de la República 9, Tabacalera, Cuauhtémoc, 06030 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Rojo Bistrot</t>
+  </si>
+  <si>
+    <t>Ámsterdam 71, Colonia Condesa, Cuauhtémoc, 06140 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Larala Larala Canta Bar</t>
+  </si>
+  <si>
+    <t>Calle de Niza 19, Juárez, Cuauhtémoc, 06600 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Tirolesa marqueza</t>
+  </si>
+  <si>
+    <t>52753 Méx., México</t>
+  </si>
+  <si>
+    <t>OUZERIA</t>
+  </si>
+  <si>
+    <t>Calle Julio Verne 95, Polanco, Polanco IV Secc, Miguel Hidalgo, 11550 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Museo Tamayo Arte Contemporáneo</t>
+  </si>
+  <si>
+    <t>Av. P.º de la Reforma 51, Polanco, Bosque de Chapultepec I Secc, Miguel Hidalgo, 11580 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Doi</t>
+  </si>
+  <si>
+    <t>Colima 268, Roma Nte., Cuauhtémoc, 06700 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Alameda Central</t>
+  </si>
+  <si>
+    <t>Av. Hidalgo s/n, Colonia Centro, Centro, Cuauhtémoc, 06010 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Museo Nacional de Antropología</t>
+  </si>
+  <si>
+    <t>Av. P.º de la Reforma s/n, Polanco, Bosque de Chapultepec I Secc, Miguel Hidalgo, 11560 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Pista de Hielo</t>
+  </si>
+  <si>
+    <t>Mosqueta Y Heroes, Eje 1 Nte. 259, Buenavista, Cuauhtémoc, 06350 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Club deportivo Tláhuac</t>
+  </si>
+  <si>
+    <t>San Rafael Atlixco 4379, Santa Ana Nte., Tláhuac, 13300 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Museo Nacional de las Culturas del Mundo INAH</t>
+  </si>
+  <si>
+    <t>Moneda 13, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Karaoke Caverna Napoles</t>
+  </si>
+  <si>
+    <t>Maximino Ávila Camacho 113, Cd. de los Deportes, Benito Juárez, 03710 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Monumento Por La Paz</t>
+  </si>
+  <si>
+    <t>Galia Chef</t>
+  </si>
+  <si>
+    <t>Av. Álvaro Obregón 101, Roma Nte., Cuauhtémoc, 06700 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Palacio de Bellas Artes</t>
+  </si>
+  <si>
+    <t>Av. Juarez S/N, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06050 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Acuario Michin CDMX</t>
+  </si>
+  <si>
+    <t>Calz. San Juan de Aragón 399, Granjas Modernas, Gustavo A. Madero, 07460 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Domino's Kidzania</t>
+  </si>
+  <si>
+    <t>C.C. Santa Fe, Vasco de Quiroga # 3800 L.1 PB |México, Antigua Mina, Santa Fe, La Totoloapan, Cuajimalpa de Morelos, 05109 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Cerro de las Cruces</t>
+  </si>
+  <si>
+    <t>Prol. 2 de Abril, Xochimilco, 16654 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Restaurant Árabe Miguel</t>
+  </si>
+  <si>
+    <t>Córdoba 226, Roma Nte., Cuauhtémoc, 06700 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Galerías Castillo</t>
+  </si>
+  <si>
+    <t>Marconi 2-Local 2, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06010 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Afromenú México</t>
+  </si>
+  <si>
+    <t>Calle Ote. 182 362b, Moctezuma 2da Secc, Venustiano Carranza, 15530 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Templo de Jesús María</t>
+  </si>
+  <si>
+    <t>Jesús María 39, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06060 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Cluny</t>
+  </si>
+  <si>
+    <t>Av. de la Paz 57, San Ángel, Álvaro Obregón, 01000 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Museo de economía</t>
+  </si>
+  <si>
+    <t>Simón Bolívar 1, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Casa de la Malinche</t>
+  </si>
+  <si>
+    <t>República de Cuba 95, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06010 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Videomania Arcade</t>
+  </si>
+  <si>
+    <t>Tlaxcala 161, Colonia Condesa, Cuauhtémoc, 06100 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Placa del Descubrimiento de la Coatlicue</t>
+  </si>
+  <si>
+    <t>José María Pino Suárez, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06060 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Fogo De Chão Polanco</t>
+  </si>
+  <si>
+    <t>Alejandro Dumas 105, Polanco, Polanco IV Secc, Miguel Hidalgo, 11560 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Retro gaming cdmx</t>
+  </si>
+  <si>
+    <t>Eje central Lázaro cárdenas 11 Local 112 primer piso, Colonia Centro, Centro, Cuauhtémoc, 06050 Cuahutémoc, CDMX</t>
+  </si>
+  <si>
+    <t>Monumento Hipsográfico de Enrico Martínez</t>
+  </si>
+  <si>
+    <t>Calle Monte de Piedad 7, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Centro, CDMX</t>
+  </si>
+  <si>
+    <t>Fuente de Cibeles</t>
+  </si>
+  <si>
+    <t>Pl. Villa de Madrid, Roma Nte., Cuauhtémoc, 06700 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Zoológico de Chapultepec</t>
+  </si>
+  <si>
+    <t>Calz. Chivatito s/n, Bosque de Chapultepec I Secc, Miguel Hidalgo, 11850 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>El planetario</t>
+  </si>
+  <si>
+    <t>San Cástulo 656, Pedregal de Sta Úrsula, Coyoacán, 04600 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Mirador Desierto de los Leones</t>
+  </si>
+  <si>
+    <t>Desierto de los Leones, Cuajimalpa de Morelos, 05740 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>El faro del norte, cafe &amp; árte</t>
+  </si>
+  <si>
+    <t>Loma Huizache 39, San Juan Ixtacala Plano Nte, 52928 Cdad. López Mateos, Méx.</t>
+  </si>
+  <si>
+    <t>Templo de San Francisco</t>
+  </si>
+  <si>
+    <t>Av Francisco I. Madero 7, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Museo del Telégrafo</t>
+  </si>
+  <si>
+    <t>C. de Tacuba 8, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06010 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Bahía Madero Marisquería</t>
+  </si>
+  <si>
+    <t>Av Francisco I. Madero 60, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Centro, CDMX</t>
+  </si>
+  <si>
+    <t>Museo Art Toys.</t>
+  </si>
+  <si>
+    <t>Av. 5 de Mayo # 23, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06010 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Eden Mx (Restaurante-Bar-Karaoke)</t>
+  </si>
+  <si>
+    <t>Xola 1308, Narvarte Poniente, Benito Juárez, 03020 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Museo de la Ciudad de México</t>
+  </si>
+  <si>
+    <t>José María Pino Suárez 30, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06060 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Museo Mural Diego Rivera</t>
+  </si>
+  <si>
+    <t>Calle Colón Balderas s/n, Colonia Centro, Centro, Cuauhtémoc, 06040 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Foro El Mictlán</t>
+  </si>
+  <si>
+    <t>Simón Bolívar 283, Obrera, Cuauhtémoc, 06800 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Camino Al cerro Xochitepec</t>
+  </si>
+  <si>
+    <t>Sin nombre No. 873 109, Santa María Tepepan, Xochimilco, 16020 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Parque Ecoturistico San Bernabé Ocotepec</t>
+  </si>
+  <si>
+    <t>Av. Ojo de Agua 1005, la tierra unidad, Álvaro Obregón, 10369 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Jardín Botánico IB-UNAM</t>
+  </si>
+  <si>
+    <t>C.U., Coyoacán, 04510 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Templo de la Inmaculada Concepción de María</t>
+  </si>
+  <si>
+    <t>Belisario Domínguez 3, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06010 Cuauhtémoc, CDMX</t>
+  </si>
+  <si>
+    <t>Iglesia de San Hipólito y San Casiano</t>
+  </si>
+  <si>
+    <t>Zarco 12, Centro Histórico de la Cdad. de México, Guerrero, Cuauhtémoc, 06300 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Central de Brazil</t>
+  </si>
+  <si>
+    <t>Palmas Karaoke by il canto</t>
+  </si>
+  <si>
+    <t>Av. Paseo de las Palmas 530, Lomas - Virreyes, Lomas de Chapultepec, Miguel Hidalgo, 11000 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>¡Recórcholis! Parque Delta</t>
+  </si>
+  <si>
+    <t>Av. Cuauhtémoc 462, Narvarte Poniente, Benito Juárez, 03020 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Deportes Rube.</t>
+  </si>
+  <si>
+    <t>C. López 26, Colonia Centro, Centro, Cuauhtémoc, 06050 Ejido del Centro, CDMX</t>
+  </si>
+  <si>
+    <t>El Peter Cantabar</t>
+  </si>
+  <si>
+    <t>Av. de los Insurgentes Sur 2351-Planta Alta, San Ángel, Álvaro Obregón, 01000 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Monumento A Los Indios Verdes</t>
+  </si>
+  <si>
+    <t>Prolongación Misterios 129, Santa Isabel Tola, Gustavo A. Madero, 07010 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Ruinas Palacio de Axayácatl</t>
+  </si>
+  <si>
+    <t>C. de la Palma 12, Centro Histórico de la Cdad. de México, Centro, Cuauhtémoc, 06000 Ciudad de México, CDMX</t>
+  </si>
+  <si>
+    <t>Amanecer Climbing</t>
+  </si>
+  <si>
+    <t>Boulevard Palmas Hills, Blvrd. Interlomas Manzana 1-Lote 1, Interlomas, Valle de las Palmas, 52763 Ciudad de México, Méx.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1215,7 +2767,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1223,30 +2775,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1551,130 +3085,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C195"/>
+  <dimension ref="A1:C459"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="C2">
-        <v>650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="C3">
-        <v>250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="C4">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="C5">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>183</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="C6">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>248</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>249</v>
       </c>
       <c r="C7">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>288</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>289</v>
       </c>
       <c r="C8">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>290</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>291</v>
       </c>
       <c r="C9">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>324</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>325</v>
       </c>
       <c r="C10">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>352</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>353</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1682,428 +3216,428 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C12">
-        <v>200</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C13">
-        <v>800</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="C14">
-        <v>300</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="C15">
-        <v>400</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>362</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>363</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>364</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>365</v>
       </c>
       <c r="C17">
-        <v>500</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>366</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>367</v>
       </c>
       <c r="C18">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>368</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>369</v>
       </c>
       <c r="C19">
-        <v>300</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>370</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>371</v>
       </c>
       <c r="C20">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>372</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>373</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>374</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>375</v>
       </c>
       <c r="C22">
-        <v>700</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>376</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>377</v>
       </c>
       <c r="C23">
-        <v>400</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C24">
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="C25">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="C26">
-        <v>800</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="C27">
-        <v>1200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="C28">
-        <v>350</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>164</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>165</v>
       </c>
       <c r="C29">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>169</v>
       </c>
       <c r="C30">
-        <v>450</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>179</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>180</v>
       </c>
       <c r="C31">
-        <v>600</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>210</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>211</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>271</v>
       </c>
       <c r="C33">
-        <v>700</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>358</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>359</v>
       </c>
       <c r="C34">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="C35">
-        <v>400</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>378</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>379</v>
       </c>
       <c r="C36">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="C37">
-        <v>300</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>380</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>381</v>
       </c>
       <c r="C38">
-        <v>600</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>382</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>383</v>
       </c>
       <c r="C39">
-        <v>350</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>384</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>385</v>
       </c>
       <c r="C40">
-        <v>900</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>386</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>387</v>
       </c>
       <c r="C43">
-        <v>300</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C44">
-        <v>50</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="C45">
-        <v>400</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="C46">
-        <v>300</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>388</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>389</v>
       </c>
       <c r="C47">
-        <v>800</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>390</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>391</v>
       </c>
       <c r="C48">
-        <v>400</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>167</v>
       </c>
       <c r="C49">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>392</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>393</v>
       </c>
       <c r="C50">
         <v>150</v>
@@ -2111,54 +3645,54 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>394</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>395</v>
       </c>
       <c r="C51">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>178</v>
       </c>
       <c r="C52">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>202</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>203</v>
       </c>
       <c r="C53">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>396</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>397</v>
       </c>
       <c r="C54">
-        <v>400</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>208</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>209</v>
       </c>
       <c r="C55">
         <v>150</v>
@@ -2166,131 +3700,131 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>398</v>
       </c>
       <c r="B56" t="s">
-        <v>111</v>
+        <v>399</v>
       </c>
       <c r="C56">
-        <v>700</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>226</v>
       </c>
       <c r="B57" t="s">
-        <v>113</v>
+        <v>227</v>
       </c>
       <c r="C57">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>400</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>401</v>
       </c>
       <c r="C58">
-        <v>300</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>244</v>
       </c>
       <c r="B59" t="s">
-        <v>117</v>
+        <v>245</v>
       </c>
       <c r="C59">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>118</v>
+        <v>402</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>403</v>
       </c>
       <c r="C60">
-        <v>600</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="B61" t="s">
-        <v>121</v>
+        <v>251</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>122</v>
+        <v>264</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
+        <v>265</v>
       </c>
       <c r="C62">
-        <v>600</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>124</v>
+        <v>404</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>405</v>
       </c>
       <c r="C63">
-        <v>400</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>406</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
+        <v>407</v>
       </c>
       <c r="C64">
-        <v>450</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>128</v>
+        <v>408</v>
       </c>
       <c r="B65" t="s">
-        <v>129</v>
+        <v>409</v>
       </c>
       <c r="C65">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>130</v>
+        <v>410</v>
       </c>
       <c r="B66" t="s">
-        <v>131</v>
+        <v>411</v>
       </c>
       <c r="C66">
-        <v>700</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>276</v>
       </c>
       <c r="B67" t="s">
-        <v>133</v>
+        <v>277</v>
       </c>
       <c r="C67">
         <v>150</v>
@@ -2298,54 +3832,54 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>134</v>
+        <v>412</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
+        <v>413</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>136</v>
+        <v>414</v>
       </c>
       <c r="B69" t="s">
-        <v>137</v>
+        <v>415</v>
       </c>
       <c r="C69">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>138</v>
+        <v>416</v>
       </c>
       <c r="B70" t="s">
-        <v>139</v>
+        <v>417</v>
       </c>
       <c r="C70">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>140</v>
+        <v>322</v>
       </c>
       <c r="B71" t="s">
-        <v>141</v>
+        <v>323</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>142</v>
+        <v>340</v>
       </c>
       <c r="B72" t="s">
-        <v>143</v>
+        <v>341</v>
       </c>
       <c r="C72">
         <v>150</v>
@@ -2353,54 +3887,54 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>144</v>
+        <v>418</v>
       </c>
       <c r="B73" t="s">
-        <v>145</v>
+        <v>419</v>
       </c>
       <c r="C73">
-        <v>400</v>
+        <v>150</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>146</v>
+        <v>420</v>
       </c>
       <c r="B74" t="s">
-        <v>147</v>
+        <v>421</v>
       </c>
       <c r="C74">
-        <v>400</v>
+        <v>150</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>148</v>
+        <v>356</v>
       </c>
       <c r="B75" t="s">
-        <v>149</v>
+        <v>357</v>
       </c>
       <c r="C75">
-        <v>350</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="C76">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="B77" t="s">
-        <v>153</v>
+        <v>22</v>
       </c>
       <c r="C77">
         <v>200</v>
@@ -2408,120 +3942,120 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="C78">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="B79" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="C79">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="B80" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="C80">
-        <v>50</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="B81" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C82">
-        <v>800</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B83" t="s">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="C83">
-        <v>900</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="B84" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="C84">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="B85" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="C85">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="B86" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="C86">
-        <v>350</v>
+        <v>200</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="B87" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="C87">
-        <v>600</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="B88" t="s">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="C88">
         <v>200</v>
@@ -2529,76 +4063,76 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="B89" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="C89">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>178</v>
+        <v>266</v>
       </c>
       <c r="B90" t="s">
-        <v>179</v>
+        <v>267</v>
       </c>
       <c r="C90">
-        <v>700</v>
+        <v>200</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>180</v>
+        <v>274</v>
       </c>
       <c r="B91" t="s">
-        <v>181</v>
+        <v>275</v>
       </c>
       <c r="C91">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>182</v>
+        <v>284</v>
       </c>
       <c r="B92" t="s">
-        <v>183</v>
+        <v>285</v>
       </c>
       <c r="C92">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>184</v>
+        <v>422</v>
       </c>
       <c r="B93" t="s">
-        <v>185</v>
+        <v>423</v>
       </c>
       <c r="C93">
-        <v>100</v>
+        <v>250</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>186</v>
+        <v>4</v>
       </c>
       <c r="B94" t="s">
         <v>13</v>
       </c>
       <c r="C94">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>187</v>
+        <v>424</v>
       </c>
       <c r="B95" t="s">
-        <v>188</v>
+        <v>425</v>
       </c>
       <c r="C95">
         <v>250</v>
@@ -2606,263 +4140,263 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>189</v>
+        <v>426</v>
       </c>
       <c r="B96" t="s">
-        <v>190</v>
+        <v>427</v>
       </c>
       <c r="C96">
-        <v>500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>191</v>
+        <v>41</v>
       </c>
       <c r="B97" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="C97">
-        <v>300</v>
+        <v>250</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>193</v>
+        <v>428</v>
       </c>
       <c r="B98" t="s">
-        <v>194</v>
+        <v>429</v>
       </c>
       <c r="C98">
-        <v>150</v>
+        <v>250</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>195</v>
+        <v>430</v>
       </c>
       <c r="B99" t="s">
-        <v>196</v>
+        <v>431</v>
       </c>
       <c r="C99">
-        <v>100</v>
+        <v>250</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>197</v>
+        <v>432</v>
       </c>
       <c r="B100" t="s">
-        <v>198</v>
+        <v>433</v>
       </c>
       <c r="C100">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>200</v>
+        <v>434</v>
       </c>
       <c r="B102" t="s">
-        <v>201</v>
+        <v>435</v>
       </c>
       <c r="C102">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>202</v>
+        <v>436</v>
       </c>
       <c r="B103" t="s">
-        <v>203</v>
+        <v>437</v>
       </c>
       <c r="C103">
-        <v>700</v>
+        <v>250</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>204</v>
+        <v>438</v>
       </c>
       <c r="B104" t="s">
-        <v>205</v>
+        <v>439</v>
       </c>
       <c r="C104">
-        <v>800</v>
+        <v>250</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>206</v>
+        <v>122</v>
       </c>
       <c r="B105" t="s">
-        <v>207</v>
+        <v>123</v>
       </c>
       <c r="C105">
-        <v>400</v>
+        <v>250</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>208</v>
+        <v>440</v>
       </c>
       <c r="B106" t="s">
-        <v>209</v>
+        <v>441</v>
       </c>
       <c r="C106">
-        <v>1000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>210</v>
+        <v>136</v>
       </c>
       <c r="B107" t="s">
-        <v>211</v>
+        <v>137</v>
       </c>
       <c r="C107">
-        <v>350</v>
+        <v>250</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>212</v>
+        <v>442</v>
       </c>
       <c r="B108" t="s">
-        <v>213</v>
+        <v>443</v>
       </c>
       <c r="C108">
-        <v>600</v>
+        <v>250</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>214</v>
+        <v>444</v>
       </c>
       <c r="B109" t="s">
-        <v>215</v>
+        <v>445</v>
       </c>
       <c r="C109">
-        <v>700</v>
+        <v>250</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="B110" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>218</v>
+        <v>446</v>
       </c>
       <c r="B111" t="s">
-        <v>219</v>
+        <v>447</v>
       </c>
       <c r="C111">
-        <v>1200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>220</v>
+        <v>448</v>
       </c>
       <c r="B112" t="s">
-        <v>221</v>
+        <v>449</v>
       </c>
       <c r="C112">
-        <v>150</v>
+        <v>250</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>222</v>
+        <v>450</v>
       </c>
       <c r="B113" t="s">
-        <v>223</v>
+        <v>451</v>
       </c>
       <c r="C113">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>224</v>
+        <v>452</v>
       </c>
       <c r="B114" t="s">
-        <v>225</v>
+        <v>453</v>
       </c>
       <c r="C114">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>226</v>
+        <v>454</v>
       </c>
       <c r="B115" t="s">
-        <v>227</v>
+        <v>455</v>
       </c>
       <c r="C115">
-        <v>150</v>
+        <v>250</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="B116" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="C116">
-        <v>400</v>
+        <v>250</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>230</v>
+        <v>456</v>
       </c>
       <c r="B117" t="s">
-        <v>231</v>
+        <v>457</v>
       </c>
       <c r="C117">
-        <v>100</v>
+        <v>250</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>232</v>
+        <v>458</v>
       </c>
       <c r="B118" t="s">
         <v>233</v>
       </c>
       <c r="C118">
-        <v>300</v>
+        <v>250</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B119" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C119">
         <v>250</v>
@@ -2870,87 +4404,87 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B120" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="C120">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>238</v>
+        <v>459</v>
       </c>
       <c r="B121" t="s">
-        <v>239</v>
+        <v>460</v>
       </c>
       <c r="C121">
-        <v>500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="B122" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="C122">
-        <v>400</v>
+        <v>250</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>242</v>
+        <v>461</v>
       </c>
       <c r="B123" t="s">
-        <v>243</v>
+        <v>462</v>
       </c>
       <c r="C123">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>244</v>
+        <v>292</v>
       </c>
       <c r="B124" t="s">
-        <v>245</v>
+        <v>293</v>
       </c>
       <c r="C124">
-        <v>300</v>
+        <v>250</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>246</v>
+        <v>463</v>
       </c>
       <c r="B125" t="s">
-        <v>247</v>
+        <v>464</v>
       </c>
       <c r="C125">
-        <v>150</v>
+        <v>250</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>248</v>
+        <v>465</v>
       </c>
       <c r="B126" t="s">
-        <v>249</v>
+        <v>466</v>
       </c>
       <c r="C126">
-        <v>600</v>
+        <v>250</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>250</v>
+        <v>314</v>
       </c>
       <c r="B127" t="s">
-        <v>251</v>
+        <v>315</v>
       </c>
       <c r="C127">
         <v>250</v>
@@ -2958,153 +4492,153 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>252</v>
+        <v>332</v>
       </c>
       <c r="B128" t="s">
-        <v>253</v>
+        <v>333</v>
       </c>
       <c r="C128">
-        <v>350</v>
+        <v>250</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>254</v>
+        <v>467</v>
       </c>
       <c r="B129" t="s">
-        <v>255</v>
+        <v>468</v>
       </c>
       <c r="C129">
-        <v>900</v>
+        <v>250</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>256</v>
+        <v>336</v>
       </c>
       <c r="B130" t="s">
-        <v>257</v>
+        <v>337</v>
       </c>
       <c r="C130">
-        <v>800</v>
+        <v>250</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>258</v>
+        <v>469</v>
       </c>
       <c r="B131" t="s">
-        <v>259</v>
+        <v>470</v>
       </c>
       <c r="C131">
-        <v>500</v>
+        <v>250</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>260</v>
+        <v>354</v>
       </c>
       <c r="B132" t="s">
-        <v>261</v>
+        <v>355</v>
       </c>
       <c r="C132">
-        <v>400</v>
+        <v>250</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>262</v>
+        <v>471</v>
       </c>
       <c r="B133" t="s">
-        <v>263</v>
+        <v>472</v>
       </c>
       <c r="C133">
-        <v>450</v>
+        <v>300</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>264</v>
+        <v>473</v>
       </c>
       <c r="B134" t="s">
-        <v>265</v>
+        <v>474</v>
       </c>
       <c r="C134">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>266</v>
+        <v>25</v>
       </c>
       <c r="B135" t="s">
-        <v>267</v>
+        <v>26</v>
       </c>
       <c r="C135">
-        <v>250</v>
+        <v>300</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>268</v>
+        <v>33</v>
       </c>
       <c r="B136" t="s">
-        <v>269</v>
+        <v>34</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>270</v>
+        <v>475</v>
       </c>
       <c r="B137" t="s">
-        <v>271</v>
+        <v>476</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>272</v>
+        <v>64</v>
       </c>
       <c r="B138" t="s">
-        <v>273</v>
+        <v>65</v>
       </c>
       <c r="C138">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>274</v>
+        <v>74</v>
       </c>
       <c r="B139" t="s">
-        <v>275</v>
+        <v>75</v>
       </c>
       <c r="C139">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>276</v>
+        <v>80</v>
       </c>
       <c r="B140" t="s">
-        <v>277</v>
+        <v>81</v>
       </c>
       <c r="C140">
-        <v>1000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>278</v>
+        <v>102</v>
       </c>
       <c r="B141" t="s">
-        <v>279</v>
+        <v>103</v>
       </c>
       <c r="C141">
         <v>300</v>
@@ -3112,32 +4646,32 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>280</v>
+        <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>281</v>
+        <v>141</v>
       </c>
       <c r="C142">
-        <v>800</v>
+        <v>300</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>282</v>
+        <v>152</v>
       </c>
       <c r="B143" t="s">
-        <v>283</v>
+        <v>153</v>
       </c>
       <c r="C143">
-        <v>250</v>
+        <v>300</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>284</v>
+        <v>175</v>
       </c>
       <c r="B144" t="s">
-        <v>285</v>
+        <v>176</v>
       </c>
       <c r="C144">
         <v>300</v>
@@ -3145,131 +4679,131 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>286</v>
+        <v>212</v>
       </c>
       <c r="B145" t="s">
-        <v>287</v>
+        <v>213</v>
       </c>
       <c r="C145">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>288</v>
+        <v>224</v>
       </c>
       <c r="B146" t="s">
-        <v>289</v>
+        <v>225</v>
       </c>
       <c r="C146">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>290</v>
+        <v>477</v>
       </c>
       <c r="B147" t="s">
-        <v>291</v>
+        <v>478</v>
       </c>
       <c r="C147">
-        <v>350</v>
+        <v>300</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="B148" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="C148">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="B149" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="C149">
-        <v>900</v>
+        <v>300</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="B150" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="C150">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B151" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C151">
-        <v>150</v>
+        <v>300</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
+        <v>298</v>
+      </c>
+      <c r="B152" t="s">
+        <v>299</v>
+      </c>
+      <c r="C152">
         <v>300</v>
-      </c>
-      <c r="B152" t="s">
-        <v>301</v>
-      </c>
-      <c r="C152">
-        <v>400</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B153" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C153">
-        <v>450</v>
+        <v>300</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="B154" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="C154">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>306</v>
+        <v>350</v>
       </c>
       <c r="B155" t="s">
-        <v>307</v>
+        <v>351</v>
       </c>
       <c r="C155">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>308</v>
+        <v>360</v>
       </c>
       <c r="B156" t="s">
-        <v>309</v>
+        <v>361</v>
       </c>
       <c r="C156">
         <v>300</v>
@@ -3277,98 +4811,98 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>310</v>
+        <v>49</v>
       </c>
       <c r="B157" t="s">
-        <v>311</v>
+        <v>50</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>350</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>312</v>
+        <v>479</v>
       </c>
       <c r="B158" t="s">
-        <v>313</v>
+        <v>480</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>350</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>314</v>
+        <v>68</v>
       </c>
       <c r="B159" t="s">
-        <v>315</v>
+        <v>69</v>
       </c>
       <c r="C159">
-        <v>250</v>
+        <v>350</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>316</v>
+        <v>481</v>
       </c>
       <c r="B160" t="s">
-        <v>317</v>
+        <v>482</v>
       </c>
       <c r="C160">
-        <v>400</v>
+        <v>350</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>318</v>
+        <v>134</v>
       </c>
       <c r="B161" t="s">
-        <v>319</v>
+        <v>135</v>
       </c>
       <c r="C161">
-        <v>300</v>
+        <v>350</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>320</v>
+        <v>156</v>
       </c>
       <c r="B162" t="s">
-        <v>321</v>
+        <v>157</v>
       </c>
       <c r="C162">
-        <v>300</v>
+        <v>350</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>322</v>
+        <v>483</v>
       </c>
       <c r="B163" t="s">
-        <v>323</v>
+        <v>484</v>
       </c>
       <c r="C163">
-        <v>400</v>
+        <v>350</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>324</v>
+        <v>194</v>
       </c>
       <c r="B164" t="s">
-        <v>325</v>
+        <v>195</v>
       </c>
       <c r="C164">
-        <v>500</v>
+        <v>350</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>326</v>
+        <v>232</v>
       </c>
       <c r="B165" t="s">
-        <v>327</v>
+        <v>233</v>
       </c>
       <c r="C165">
         <v>350</v>
@@ -3376,98 +4910,98 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>328</v>
+        <v>268</v>
       </c>
       <c r="B166" t="s">
-        <v>329</v>
+        <v>269</v>
       </c>
       <c r="C166">
-        <v>300</v>
+        <v>350</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="B167" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>350</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
-        <v>332</v>
+        <v>485</v>
       </c>
       <c r="B168" t="s">
-        <v>333</v>
+        <v>486</v>
       </c>
       <c r="C168">
-        <v>600</v>
+        <v>350</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="B169" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="C169">
-        <v>400</v>
+        <v>350</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
-        <v>336</v>
+        <v>487</v>
       </c>
       <c r="B170" t="s">
-        <v>337</v>
+        <v>488</v>
       </c>
       <c r="C170">
-        <v>300</v>
+        <v>350</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>338</v>
+        <v>8</v>
       </c>
       <c r="B171" t="s">
-        <v>339</v>
+        <v>17</v>
       </c>
       <c r="C171">
-        <v>450</v>
+        <v>400</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>340</v>
+        <v>27</v>
       </c>
       <c r="B172" t="s">
-        <v>341</v>
+        <v>28</v>
       </c>
       <c r="C172">
-        <v>250</v>
+        <v>400</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
-        <v>342</v>
+        <v>39</v>
       </c>
       <c r="B173" t="s">
-        <v>343</v>
+        <v>40</v>
       </c>
       <c r="C173">
-        <v>500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
-        <v>344</v>
+        <v>489</v>
       </c>
       <c r="B174" t="s">
-        <v>345</v>
+        <v>490</v>
       </c>
       <c r="C174">
         <v>400</v>
@@ -3475,131 +5009,131 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
-        <v>346</v>
+        <v>61</v>
       </c>
       <c r="B175" t="s">
-        <v>347</v>
+        <v>62</v>
       </c>
       <c r="C175">
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
-        <v>348</v>
+        <v>491</v>
       </c>
       <c r="B176" t="s">
-        <v>349</v>
+        <v>492</v>
       </c>
       <c r="C176">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
-        <v>350</v>
+        <v>78</v>
       </c>
       <c r="B177" t="s">
-        <v>351</v>
+        <v>79</v>
       </c>
       <c r="C177">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
-        <v>352</v>
+        <v>94</v>
       </c>
       <c r="B178" t="s">
-        <v>353</v>
+        <v>95</v>
       </c>
       <c r="C178">
-        <v>2000</v>
+        <v>400</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
-        <v>354</v>
+        <v>112</v>
       </c>
       <c r="B179" t="s">
-        <v>355</v>
+        <v>113</v>
       </c>
       <c r="C179">
-        <v>700</v>
+        <v>400</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
-        <v>356</v>
+        <v>130</v>
       </c>
       <c r="B180" t="s">
-        <v>357</v>
+        <v>131</v>
       </c>
       <c r="C180">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
-        <v>358</v>
+        <v>132</v>
       </c>
       <c r="B181" t="s">
-        <v>359</v>
+        <v>133</v>
       </c>
       <c r="C181">
-        <v>250</v>
+        <v>400</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
-        <v>360</v>
+        <v>142</v>
       </c>
       <c r="B182" t="s">
-        <v>361</v>
+        <v>143</v>
       </c>
       <c r="C182">
-        <v>800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
-        <v>362</v>
+        <v>154</v>
       </c>
       <c r="B183" t="s">
-        <v>363</v>
+        <v>155</v>
       </c>
       <c r="C183">
-        <v>250</v>
+        <v>400</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
-        <v>364</v>
+        <v>190</v>
       </c>
       <c r="B184" t="s">
-        <v>365</v>
+        <v>191</v>
       </c>
       <c r="C184">
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
-        <v>366</v>
+        <v>493</v>
       </c>
       <c r="B185" t="s">
-        <v>367</v>
+        <v>494</v>
       </c>
       <c r="C185">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
-        <v>368</v>
+        <v>220</v>
       </c>
       <c r="B186" t="s">
-        <v>369</v>
+        <v>221</v>
       </c>
       <c r="C186">
         <v>400</v>
@@ -3607,10 +5141,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
-        <v>370</v>
+        <v>240</v>
       </c>
       <c r="B187" t="s">
-        <v>371</v>
+        <v>241</v>
       </c>
       <c r="C187">
         <v>400</v>
@@ -3618,90 +5152,2994 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
-        <v>372</v>
+        <v>252</v>
       </c>
       <c r="B188" t="s">
-        <v>373</v>
+        <v>253</v>
       </c>
       <c r="C188">
-        <v>1200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
-        <v>374</v>
+        <v>278</v>
       </c>
       <c r="B189" t="s">
-        <v>375</v>
+        <v>279</v>
       </c>
       <c r="C189">
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
-        <v>376</v>
+        <v>282</v>
       </c>
       <c r="B190" t="s">
-        <v>377</v>
+        <v>283</v>
       </c>
       <c r="C190">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
-        <v>378</v>
+        <v>294</v>
       </c>
       <c r="B191" t="s">
-        <v>379</v>
+        <v>295</v>
       </c>
       <c r="C191">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="B192" t="s">
-        <v>381</v>
+        <v>301</v>
       </c>
       <c r="C192">
-        <v>250</v>
+        <v>400</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
-        <v>382</v>
+        <v>308</v>
       </c>
       <c r="B193" t="s">
-        <v>383</v>
+        <v>309</v>
       </c>
       <c r="C193">
-        <v>150</v>
+        <v>400</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
-        <v>384</v>
+        <v>318</v>
       </c>
       <c r="B194" t="s">
-        <v>385</v>
+        <v>319</v>
       </c>
       <c r="C194">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
-        <v>386</v>
+        <v>342</v>
       </c>
       <c r="B195" t="s">
-        <v>387</v>
+        <v>343</v>
       </c>
       <c r="C195">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A196" t="s">
+        <v>344</v>
+      </c>
+      <c r="B196" t="s">
+        <v>345</v>
+      </c>
+      <c r="C196">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A197" t="s">
+        <v>53</v>
+      </c>
+      <c r="B197" t="s">
+        <v>54</v>
+      </c>
+      <c r="C197">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A198" t="s">
+        <v>114</v>
+      </c>
+      <c r="B198" t="s">
+        <v>115</v>
+      </c>
+      <c r="C198">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A199" t="s">
+        <v>242</v>
+      </c>
+      <c r="B199" t="s">
+        <v>243</v>
+      </c>
+      <c r="C199">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A200" t="s">
+        <v>280</v>
+      </c>
+      <c r="B200" t="s">
+        <v>281</v>
+      </c>
+      <c r="C200">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A201" t="s">
+        <v>312</v>
+      </c>
+      <c r="B201" t="s">
+        <v>313</v>
+      </c>
+      <c r="C201">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A202" t="s">
+        <v>6</v>
+      </c>
+      <c r="B202" t="s">
+        <v>15</v>
+      </c>
+      <c r="C202">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A203" t="s">
+        <v>495</v>
+      </c>
+      <c r="B203" t="s">
+        <v>496</v>
+      </c>
+      <c r="C203">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A204" t="s">
+        <v>29</v>
+      </c>
+      <c r="B204" t="s">
+        <v>30</v>
+      </c>
+      <c r="C204">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A205" t="s">
+        <v>51</v>
+      </c>
+      <c r="B205" t="s">
+        <v>52</v>
+      </c>
+      <c r="C205">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A206" t="s">
+        <v>173</v>
+      </c>
+      <c r="B206" t="s">
+        <v>174</v>
+      </c>
+      <c r="C206">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A207" t="s">
+        <v>218</v>
+      </c>
+      <c r="B207" t="s">
+        <v>219</v>
+      </c>
+      <c r="C207">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A208" t="s">
+        <v>238</v>
+      </c>
+      <c r="B208" t="s">
+        <v>239</v>
+      </c>
+      <c r="C208">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A209" t="s">
+        <v>302</v>
+      </c>
+      <c r="B209" t="s">
+        <v>303</v>
+      </c>
+      <c r="C209">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A210" t="s">
+        <v>316</v>
+      </c>
+      <c r="B210" t="s">
+        <v>317</v>
+      </c>
+      <c r="C210">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B211" t="s">
+        <v>14</v>
+      </c>
+      <c r="C211">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A212" t="s">
+        <v>55</v>
+      </c>
+      <c r="B212" t="s">
+        <v>56</v>
+      </c>
+      <c r="C212">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A213" t="s">
+        <v>66</v>
+      </c>
+      <c r="B213" t="s">
+        <v>67</v>
+      </c>
+      <c r="C213">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A214" t="s">
+        <v>106</v>
+      </c>
+      <c r="B214" t="s">
+        <v>107</v>
+      </c>
+      <c r="C214">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A215" t="s">
+        <v>110</v>
+      </c>
+      <c r="B215" t="s">
+        <v>111</v>
+      </c>
+      <c r="C215">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A216" t="s">
+        <v>158</v>
+      </c>
+      <c r="B216" t="s">
+        <v>159</v>
+      </c>
+      <c r="C216">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A217" t="s">
+        <v>196</v>
+      </c>
+      <c r="B217" t="s">
+        <v>197</v>
+      </c>
+      <c r="C217">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A218" t="s">
+        <v>228</v>
+      </c>
+      <c r="B218" t="s">
+        <v>229</v>
+      </c>
+      <c r="C218">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A219" t="s">
+        <v>306</v>
+      </c>
+      <c r="B219" t="s">
+        <v>307</v>
+      </c>
+      <c r="C219">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A220" t="s">
+        <v>320</v>
+      </c>
+      <c r="B220" t="s">
+        <v>321</v>
+      </c>
+      <c r="C220">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A221" t="s">
+        <v>338</v>
+      </c>
+      <c r="B221" t="s">
+        <v>339</v>
+      </c>
+      <c r="C221">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A222" t="s">
+        <v>3</v>
+      </c>
+      <c r="B222" t="s">
+        <v>12</v>
+      </c>
+      <c r="C222">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A223" t="s">
+        <v>37</v>
+      </c>
+      <c r="B223" t="s">
+        <v>38</v>
+      </c>
+      <c r="C223">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A224" t="s">
+        <v>57</v>
+      </c>
+      <c r="B224" t="s">
+        <v>58</v>
+      </c>
+      <c r="C224">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A225" t="s">
+        <v>98</v>
+      </c>
+      <c r="B225" t="s">
+        <v>99</v>
+      </c>
+      <c r="C225">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A226" t="s">
+        <v>118</v>
+      </c>
+      <c r="B226" t="s">
+        <v>119</v>
+      </c>
+      <c r="C226">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A227" t="s">
+        <v>162</v>
+      </c>
+      <c r="B227" t="s">
+        <v>163</v>
+      </c>
+      <c r="C227">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A228" t="s">
+        <v>186</v>
+      </c>
+      <c r="B228" t="s">
+        <v>187</v>
+      </c>
+      <c r="C228">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A229" t="s">
+        <v>198</v>
+      </c>
+      <c r="B229" t="s">
+        <v>199</v>
+      </c>
+      <c r="C229">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A230" t="s">
+        <v>328</v>
+      </c>
+      <c r="B230" t="s">
+        <v>329</v>
+      </c>
+      <c r="C230">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A231" t="s">
+        <v>23</v>
+      </c>
+      <c r="B231" t="s">
+        <v>24</v>
+      </c>
+      <c r="C231">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A232" t="s">
+        <v>45</v>
+      </c>
+      <c r="B232" t="s">
+        <v>46</v>
+      </c>
+      <c r="C232">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A233" t="s">
+        <v>82</v>
+      </c>
+      <c r="B233" t="s">
+        <v>83</v>
+      </c>
+      <c r="C233">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A234" t="s">
+        <v>148</v>
+      </c>
+      <c r="B234" t="s">
+        <v>149</v>
+      </c>
+      <c r="C234">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A235" t="s">
+        <v>188</v>
+      </c>
+      <c r="B235" t="s">
+        <v>189</v>
+      </c>
+      <c r="C235">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A236" t="s">
+        <v>236</v>
+      </c>
+      <c r="B236" t="s">
+        <v>237</v>
+      </c>
+      <c r="C236">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A237" t="s">
+        <v>258</v>
+      </c>
+      <c r="B237" t="s">
+        <v>259</v>
+      </c>
+      <c r="C237">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A238" t="s">
+        <v>334</v>
+      </c>
+      <c r="B238" t="s">
+        <v>335</v>
+      </c>
+      <c r="C238">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A239" t="s">
+        <v>70</v>
+      </c>
+      <c r="B239" t="s">
+        <v>71</v>
+      </c>
+      <c r="C239">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A240" t="s">
+        <v>150</v>
+      </c>
+      <c r="B240" t="s">
+        <v>151</v>
+      </c>
+      <c r="C240">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A241" t="s">
+        <v>234</v>
+      </c>
+      <c r="B241" t="s">
+        <v>235</v>
+      </c>
+      <c r="C241">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A242" t="s">
+        <v>272</v>
+      </c>
+      <c r="B242" t="s">
+        <v>273</v>
+      </c>
+      <c r="C242">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A243" t="s">
+        <v>10</v>
+      </c>
+      <c r="B243" t="s">
+        <v>19</v>
+      </c>
+      <c r="C243">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A244" t="s">
+        <v>497</v>
+      </c>
+      <c r="B244" t="s">
+        <v>498</v>
+      </c>
+      <c r="C244">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A245" t="s">
+        <v>499</v>
+      </c>
+      <c r="B245" t="s">
+        <v>500</v>
+      </c>
+      <c r="C245">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A246" t="s">
+        <v>43</v>
+      </c>
+      <c r="B246" t="s">
+        <v>44</v>
+      </c>
+      <c r="C246">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A247" t="s">
+        <v>501</v>
+      </c>
+      <c r="B247" t="s">
+        <v>502</v>
+      </c>
+      <c r="C247">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A248" t="s">
+        <v>192</v>
+      </c>
+      <c r="B248" t="s">
+        <v>193</v>
+      </c>
+      <c r="C248">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A249" t="s">
+        <v>503</v>
+      </c>
+      <c r="B249" t="s">
+        <v>504</v>
+      </c>
+      <c r="C249">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A250" t="s">
+        <v>505</v>
+      </c>
+      <c r="B250" t="s">
+        <v>506</v>
+      </c>
+      <c r="C250">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A251" t="s">
+        <v>254</v>
+      </c>
+      <c r="B251" t="s">
+        <v>255</v>
+      </c>
+      <c r="C251">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A252" t="s">
+        <v>507</v>
+      </c>
+      <c r="B252" t="s">
+        <v>508</v>
+      </c>
+      <c r="C252">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A253" t="s">
+        <v>509</v>
+      </c>
+      <c r="B253" t="s">
+        <v>510</v>
+      </c>
+      <c r="C253">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A254" t="s">
+        <v>511</v>
+      </c>
+      <c r="B254" t="s">
+        <v>512</v>
+      </c>
+      <c r="C254">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A255" t="s">
+        <v>47</v>
+      </c>
+      <c r="B255" t="s">
+        <v>48</v>
+      </c>
+      <c r="C255">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A256" t="s">
+        <v>200</v>
+      </c>
+      <c r="B256" t="s">
+        <v>201</v>
+      </c>
+      <c r="C256">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A257" t="s">
+        <v>346</v>
+      </c>
+      <c r="B257" t="s">
+        <v>347</v>
+      </c>
+      <c r="C257">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A258" t="s">
+        <v>326</v>
+      </c>
+      <c r="B258" t="s">
+        <v>327</v>
+      </c>
+      <c r="C258">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A259" t="s">
+        <v>513</v>
+      </c>
+      <c r="B259" t="s">
+        <v>514</v>
+      </c>
+      <c r="C259">
         <v>300</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A260" t="s">
+        <v>515</v>
+      </c>
+      <c r="B260" t="s">
+        <v>516</v>
+      </c>
+      <c r="C260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A261" t="s">
+        <v>517</v>
+      </c>
+      <c r="B261" t="s">
+        <v>518</v>
+      </c>
+      <c r="C261">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A262" t="s">
+        <v>519</v>
+      </c>
+      <c r="B262" t="s">
+        <v>520</v>
+      </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A263" t="s">
+        <v>521</v>
+      </c>
+      <c r="B263" t="s">
+        <v>522</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A264" t="s">
+        <v>523</v>
+      </c>
+      <c r="B264" t="s">
+        <v>524</v>
+      </c>
+      <c r="C264">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A265" t="s">
+        <v>525</v>
+      </c>
+      <c r="B265" t="s">
+        <v>526</v>
+      </c>
+      <c r="C265">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A266" t="s">
+        <v>527</v>
+      </c>
+      <c r="B266" t="s">
+        <v>528</v>
+      </c>
+      <c r="C266">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A267" t="s">
+        <v>529</v>
+      </c>
+      <c r="B267" t="s">
+        <v>530</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A268" t="s">
+        <v>531</v>
+      </c>
+      <c r="B268" t="s">
+        <v>532</v>
+      </c>
+      <c r="C268">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A269" t="s">
+        <v>533</v>
+      </c>
+      <c r="B269" t="s">
+        <v>534</v>
+      </c>
+      <c r="C269">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A270" t="s">
+        <v>535</v>
+      </c>
+      <c r="B270" t="s">
+        <v>536</v>
+      </c>
+      <c r="C270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A271" t="s">
+        <v>537</v>
+      </c>
+      <c r="B271" t="s">
+        <v>538</v>
+      </c>
+      <c r="C271">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A272" t="s">
+        <v>539</v>
+      </c>
+      <c r="B272" t="s">
+        <v>540</v>
+      </c>
+      <c r="C272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A273" t="s">
+        <v>541</v>
+      </c>
+      <c r="B273" t="s">
+        <v>542</v>
+      </c>
+      <c r="C273">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A274" t="s">
+        <v>543</v>
+      </c>
+      <c r="B274" t="s">
+        <v>544</v>
+      </c>
+      <c r="C274">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A275" t="s">
+        <v>545</v>
+      </c>
+      <c r="B275" t="s">
+        <v>546</v>
+      </c>
+      <c r="C275">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A276" t="s">
+        <v>547</v>
+      </c>
+      <c r="B276" t="s">
+        <v>548</v>
+      </c>
+      <c r="C276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A277" t="s">
+        <v>549</v>
+      </c>
+      <c r="B277" t="s">
+        <v>550</v>
+      </c>
+      <c r="C277">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A278" t="s">
+        <v>551</v>
+      </c>
+      <c r="B278" t="s">
+        <v>552</v>
+      </c>
+      <c r="C278">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A279" t="s">
+        <v>553</v>
+      </c>
+      <c r="B279" t="s">
+        <v>554</v>
+      </c>
+      <c r="C279">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A280" t="s">
+        <v>555</v>
+      </c>
+      <c r="B280" t="s">
+        <v>556</v>
+      </c>
+      <c r="C280">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A281" t="s">
+        <v>557</v>
+      </c>
+      <c r="B281" t="s">
+        <v>558</v>
+      </c>
+      <c r="C281">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A282" t="s">
+        <v>559</v>
+      </c>
+      <c r="B282" t="s">
+        <v>560</v>
+      </c>
+      <c r="C282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A283" t="s">
+        <v>561</v>
+      </c>
+      <c r="B283" t="s">
+        <v>562</v>
+      </c>
+      <c r="C283">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A284" t="s">
+        <v>563</v>
+      </c>
+      <c r="B284" t="s">
+        <v>13</v>
+      </c>
+      <c r="C284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A285" t="s">
+        <v>564</v>
+      </c>
+      <c r="B285" t="s">
+        <v>565</v>
+      </c>
+      <c r="C285">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A286" t="s">
+        <v>566</v>
+      </c>
+      <c r="B286" t="s">
+        <v>567</v>
+      </c>
+      <c r="C286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A287" t="s">
+        <v>568</v>
+      </c>
+      <c r="B287" t="s">
+        <v>569</v>
+      </c>
+      <c r="C287">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A288" t="s">
+        <v>570</v>
+      </c>
+      <c r="B288" t="s">
+        <v>571</v>
+      </c>
+      <c r="C288">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A289" t="s">
+        <v>572</v>
+      </c>
+      <c r="B289" t="s">
+        <v>573</v>
+      </c>
+      <c r="C289">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A290" t="s">
+        <v>574</v>
+      </c>
+      <c r="B290" t="s">
+        <v>575</v>
+      </c>
+      <c r="C290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A291" t="s">
+        <v>576</v>
+      </c>
+      <c r="B291" t="s">
+        <v>577</v>
+      </c>
+      <c r="C291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A292" t="s">
+        <v>578</v>
+      </c>
+      <c r="B292" t="s">
+        <v>579</v>
+      </c>
+      <c r="C292">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A293" t="s">
+        <v>580</v>
+      </c>
+      <c r="B293" t="s">
+        <v>581</v>
+      </c>
+      <c r="C293">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A294" t="s">
+        <v>582</v>
+      </c>
+      <c r="B294" t="s">
+        <v>583</v>
+      </c>
+      <c r="C294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A295" t="s">
+        <v>584</v>
+      </c>
+      <c r="B295" t="s">
+        <v>585</v>
+      </c>
+      <c r="C295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A296" t="s">
+        <v>586</v>
+      </c>
+      <c r="B296" t="s">
+        <v>587</v>
+      </c>
+      <c r="C296">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A297" t="s">
+        <v>588</v>
+      </c>
+      <c r="B297" t="s">
+        <v>589</v>
+      </c>
+      <c r="C297">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A298" t="s">
+        <v>590</v>
+      </c>
+      <c r="B298" t="s">
+        <v>591</v>
+      </c>
+      <c r="C298">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A299" t="s">
+        <v>592</v>
+      </c>
+      <c r="B299" t="s">
+        <v>593</v>
+      </c>
+      <c r="C299">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A300" t="s">
+        <v>594</v>
+      </c>
+      <c r="B300" t="s">
+        <v>595</v>
+      </c>
+      <c r="C300">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A301" t="s">
+        <v>596</v>
+      </c>
+      <c r="B301" t="s">
+        <v>597</v>
+      </c>
+      <c r="C301">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A302" t="s">
+        <v>598</v>
+      </c>
+      <c r="B302" t="s">
+        <v>599</v>
+      </c>
+      <c r="C302">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A303" t="s">
+        <v>600</v>
+      </c>
+      <c r="B303" t="s">
+        <v>601</v>
+      </c>
+      <c r="C303">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A304" t="s">
+        <v>602</v>
+      </c>
+      <c r="B304" t="s">
+        <v>524</v>
+      </c>
+      <c r="C304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A305" t="s">
+        <v>603</v>
+      </c>
+      <c r="B305" t="s">
+        <v>604</v>
+      </c>
+      <c r="C305">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A306" t="s">
+        <v>605</v>
+      </c>
+      <c r="B306" t="s">
+        <v>606</v>
+      </c>
+      <c r="C306">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A307" t="s">
+        <v>607</v>
+      </c>
+      <c r="B307" t="s">
+        <v>608</v>
+      </c>
+      <c r="C307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A308" t="s">
+        <v>609</v>
+      </c>
+      <c r="B308" t="s">
+        <v>610</v>
+      </c>
+      <c r="C308">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A309" t="s">
+        <v>611</v>
+      </c>
+      <c r="B309" t="s">
+        <v>612</v>
+      </c>
+      <c r="C309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A310" t="s">
+        <v>613</v>
+      </c>
+      <c r="B310" t="s">
+        <v>614</v>
+      </c>
+      <c r="C310">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A311" t="s">
+        <v>615</v>
+      </c>
+      <c r="B311" t="s">
+        <v>616</v>
+      </c>
+      <c r="C311">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A312" t="s">
+        <v>617</v>
+      </c>
+      <c r="B312" t="s">
+        <v>618</v>
+      </c>
+      <c r="C312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A313" t="s">
+        <v>619</v>
+      </c>
+      <c r="B313" t="s">
+        <v>620</v>
+      </c>
+      <c r="C313">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A314" t="s">
+        <v>621</v>
+      </c>
+      <c r="B314" t="s">
+        <v>622</v>
+      </c>
+      <c r="C314">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A315" t="s">
+        <v>623</v>
+      </c>
+      <c r="B315" t="s">
+        <v>624</v>
+      </c>
+      <c r="C315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A316" t="s">
+        <v>625</v>
+      </c>
+      <c r="B316" t="s">
+        <v>626</v>
+      </c>
+      <c r="C316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A317" t="s">
+        <v>627</v>
+      </c>
+      <c r="B317" t="s">
+        <v>628</v>
+      </c>
+      <c r="C317">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A318" t="s">
+        <v>629</v>
+      </c>
+      <c r="B318" t="s">
+        <v>630</v>
+      </c>
+      <c r="C318">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A319" t="s">
+        <v>631</v>
+      </c>
+      <c r="B319" t="s">
+        <v>632</v>
+      </c>
+      <c r="C319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A320" t="s">
+        <v>633</v>
+      </c>
+      <c r="B320" t="s">
+        <v>634</v>
+      </c>
+      <c r="C320">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A321" t="s">
+        <v>635</v>
+      </c>
+      <c r="B321" t="s">
+        <v>636</v>
+      </c>
+      <c r="C321">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A322" t="s">
+        <v>637</v>
+      </c>
+      <c r="B322" t="s">
+        <v>638</v>
+      </c>
+      <c r="C322">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A323" t="s">
+        <v>639</v>
+      </c>
+      <c r="B323" t="s">
+        <v>640</v>
+      </c>
+      <c r="C323">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A324" t="s">
+        <v>641</v>
+      </c>
+      <c r="B324" t="s">
+        <v>642</v>
+      </c>
+      <c r="C324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A325" t="s">
+        <v>643</v>
+      </c>
+      <c r="B325" t="s">
+        <v>644</v>
+      </c>
+      <c r="C325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A326" t="s">
+        <v>645</v>
+      </c>
+      <c r="B326" t="s">
+        <v>646</v>
+      </c>
+      <c r="C326">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A327" t="s">
+        <v>647</v>
+      </c>
+      <c r="B327" t="s">
+        <v>648</v>
+      </c>
+      <c r="C327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A328" t="s">
+        <v>649</v>
+      </c>
+      <c r="B328" t="s">
+        <v>650</v>
+      </c>
+      <c r="C328">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A329" t="s">
+        <v>651</v>
+      </c>
+      <c r="B329" t="s">
+        <v>652</v>
+      </c>
+      <c r="C329">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A330" t="s">
+        <v>653</v>
+      </c>
+      <c r="B330" t="s">
+        <v>654</v>
+      </c>
+      <c r="C330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A331" t="s">
+        <v>655</v>
+      </c>
+      <c r="B331" t="s">
+        <v>656</v>
+      </c>
+      <c r="C331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A332" t="s">
+        <v>657</v>
+      </c>
+      <c r="B332" t="s">
+        <v>658</v>
+      </c>
+      <c r="C332">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A333" t="s">
+        <v>659</v>
+      </c>
+      <c r="B333" t="s">
+        <v>660</v>
+      </c>
+      <c r="C333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A334" t="s">
+        <v>661</v>
+      </c>
+      <c r="B334" t="s">
+        <v>662</v>
+      </c>
+      <c r="C334">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A335" t="s">
+        <v>663</v>
+      </c>
+      <c r="B335" t="s">
+        <v>664</v>
+      </c>
+      <c r="C335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A336" t="s">
+        <v>665</v>
+      </c>
+      <c r="B336" t="s">
+        <v>666</v>
+      </c>
+      <c r="C336">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A337" t="s">
+        <v>667</v>
+      </c>
+      <c r="B337" t="s">
+        <v>668</v>
+      </c>
+      <c r="C337">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A338" t="s">
+        <v>669</v>
+      </c>
+      <c r="B338" t="s">
+        <v>670</v>
+      </c>
+      <c r="C338">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A339" t="s">
+        <v>671</v>
+      </c>
+      <c r="B339" t="s">
+        <v>672</v>
+      </c>
+      <c r="C339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A340" t="s">
+        <v>673</v>
+      </c>
+      <c r="B340" t="s">
+        <v>674</v>
+      </c>
+      <c r="C340">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A341" t="s">
+        <v>675</v>
+      </c>
+      <c r="B341" t="s">
+        <v>676</v>
+      </c>
+      <c r="C341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A342" t="s">
+        <v>677</v>
+      </c>
+      <c r="B342" t="s">
+        <v>678</v>
+      </c>
+      <c r="C342">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A343" t="s">
+        <v>679</v>
+      </c>
+      <c r="B343" t="s">
+        <v>245</v>
+      </c>
+      <c r="C343">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A344" t="s">
+        <v>680</v>
+      </c>
+      <c r="B344" t="s">
+        <v>681</v>
+      </c>
+      <c r="C344">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A345" t="s">
+        <v>682</v>
+      </c>
+      <c r="B345" t="s">
+        <v>683</v>
+      </c>
+      <c r="C345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A346" t="s">
+        <v>684</v>
+      </c>
+      <c r="B346" t="s">
+        <v>685</v>
+      </c>
+      <c r="C346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A347" t="s">
+        <v>686</v>
+      </c>
+      <c r="B347" t="s">
+        <v>687</v>
+      </c>
+      <c r="C347">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A348" t="s">
+        <v>688</v>
+      </c>
+      <c r="B348" t="s">
+        <v>689</v>
+      </c>
+      <c r="C348">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A349" t="s">
+        <v>690</v>
+      </c>
+      <c r="B349" t="s">
+        <v>691</v>
+      </c>
+      <c r="C349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A350" t="s">
+        <v>692</v>
+      </c>
+      <c r="B350" t="s">
+        <v>693</v>
+      </c>
+      <c r="C350">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A351" t="s">
+        <v>694</v>
+      </c>
+      <c r="B351" t="s">
+        <v>695</v>
+      </c>
+      <c r="C351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A352" t="s">
+        <v>696</v>
+      </c>
+      <c r="B352" t="s">
+        <v>591</v>
+      </c>
+      <c r="C352">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A353" t="s">
+        <v>697</v>
+      </c>
+      <c r="B353" t="s">
+        <v>698</v>
+      </c>
+      <c r="C353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A354" t="s">
+        <v>699</v>
+      </c>
+      <c r="B354" t="s">
+        <v>700</v>
+      </c>
+      <c r="C354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A355" t="s">
+        <v>701</v>
+      </c>
+      <c r="B355" t="s">
+        <v>702</v>
+      </c>
+      <c r="C355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A356" t="s">
+        <v>703</v>
+      </c>
+      <c r="B356" t="s">
+        <v>704</v>
+      </c>
+      <c r="C356">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A357" t="s">
+        <v>705</v>
+      </c>
+      <c r="B357" t="s">
+        <v>706</v>
+      </c>
+      <c r="C357">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A358" t="s">
+        <v>707</v>
+      </c>
+      <c r="B358" t="s">
+        <v>708</v>
+      </c>
+      <c r="C358">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A359" t="s">
+        <v>709</v>
+      </c>
+      <c r="B359" t="s">
+        <v>710</v>
+      </c>
+      <c r="C359">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A360" t="s">
+        <v>711</v>
+      </c>
+      <c r="B360" t="s">
+        <v>652</v>
+      </c>
+      <c r="C360">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A361" t="s">
+        <v>712</v>
+      </c>
+      <c r="B361" t="s">
+        <v>713</v>
+      </c>
+      <c r="C361">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A362" t="s">
+        <v>714</v>
+      </c>
+      <c r="B362" t="s">
+        <v>715</v>
+      </c>
+      <c r="C362">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A363" t="s">
+        <v>716</v>
+      </c>
+      <c r="B363" t="s">
+        <v>717</v>
+      </c>
+      <c r="C363">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A364" t="s">
+        <v>718</v>
+      </c>
+      <c r="B364" t="s">
+        <v>719</v>
+      </c>
+      <c r="C364">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A365" t="s">
+        <v>720</v>
+      </c>
+      <c r="B365" t="s">
+        <v>721</v>
+      </c>
+      <c r="C365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A366" t="s">
+        <v>722</v>
+      </c>
+      <c r="B366" t="s">
+        <v>723</v>
+      </c>
+      <c r="C366">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A367" t="s">
+        <v>724</v>
+      </c>
+      <c r="B367" t="s">
+        <v>725</v>
+      </c>
+      <c r="C367">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A368" t="s">
+        <v>726</v>
+      </c>
+      <c r="B368" t="s">
+        <v>727</v>
+      </c>
+      <c r="C368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A369" t="s">
+        <v>728</v>
+      </c>
+      <c r="B369" t="s">
+        <v>729</v>
+      </c>
+      <c r="C369">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A370" t="s">
+        <v>730</v>
+      </c>
+      <c r="B370" t="s">
+        <v>731</v>
+      </c>
+      <c r="C370">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A371" t="s">
+        <v>732</v>
+      </c>
+      <c r="B371" t="s">
+        <v>733</v>
+      </c>
+      <c r="C371">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A372" t="s">
+        <v>734</v>
+      </c>
+      <c r="B372" t="s">
+        <v>735</v>
+      </c>
+      <c r="C372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A373" t="s">
+        <v>736</v>
+      </c>
+      <c r="B373" t="s">
+        <v>737</v>
+      </c>
+      <c r="C373">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A374" t="s">
+        <v>738</v>
+      </c>
+      <c r="B374" t="s">
+        <v>739</v>
+      </c>
+      <c r="C374">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A375" t="s">
+        <v>740</v>
+      </c>
+      <c r="B375" t="s">
+        <v>741</v>
+      </c>
+      <c r="C375">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A376" t="s">
+        <v>742</v>
+      </c>
+      <c r="B376" t="s">
+        <v>743</v>
+      </c>
+      <c r="C376">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A377" t="s">
+        <v>744</v>
+      </c>
+      <c r="B377" t="s">
+        <v>745</v>
+      </c>
+      <c r="C377">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A378" t="s">
+        <v>746</v>
+      </c>
+      <c r="B378" t="s">
+        <v>747</v>
+      </c>
+      <c r="C378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A379" t="s">
+        <v>748</v>
+      </c>
+      <c r="B379" t="s">
+        <v>749</v>
+      </c>
+      <c r="C379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A380" t="s">
+        <v>750</v>
+      </c>
+      <c r="B380" t="s">
+        <v>751</v>
+      </c>
+      <c r="C380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A381" t="s">
+        <v>752</v>
+      </c>
+      <c r="B381" t="s">
+        <v>753</v>
+      </c>
+      <c r="C381">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A382" t="s">
+        <v>754</v>
+      </c>
+      <c r="B382" t="s">
+        <v>755</v>
+      </c>
+      <c r="C382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A383" t="s">
+        <v>756</v>
+      </c>
+      <c r="B383" t="s">
+        <v>757</v>
+      </c>
+      <c r="C383">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A384" t="s">
+        <v>758</v>
+      </c>
+      <c r="B384" t="s">
+        <v>759</v>
+      </c>
+      <c r="C384">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A385" t="s">
+        <v>760</v>
+      </c>
+      <c r="B385" t="s">
+        <v>761</v>
+      </c>
+      <c r="C385">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A386" t="s">
+        <v>762</v>
+      </c>
+      <c r="B386" t="s">
+        <v>763</v>
+      </c>
+      <c r="C386">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A387" t="s">
+        <v>764</v>
+      </c>
+      <c r="B387" t="s">
+        <v>765</v>
+      </c>
+      <c r="C387">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A388" t="s">
+        <v>766</v>
+      </c>
+      <c r="B388" t="s">
+        <v>767</v>
+      </c>
+      <c r="C388">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A389" t="s">
+        <v>768</v>
+      </c>
+      <c r="B389" t="s">
+        <v>769</v>
+      </c>
+      <c r="C389">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A390" t="s">
+        <v>770</v>
+      </c>
+      <c r="B390" t="s">
+        <v>771</v>
+      </c>
+      <c r="C390">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A391" t="s">
+        <v>772</v>
+      </c>
+      <c r="B391" t="s">
+        <v>773</v>
+      </c>
+      <c r="C391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A392" t="s">
+        <v>774</v>
+      </c>
+      <c r="B392" t="s">
+        <v>775</v>
+      </c>
+      <c r="C392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A393" t="s">
+        <v>776</v>
+      </c>
+      <c r="B393" t="s">
+        <v>777</v>
+      </c>
+      <c r="C393">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A394" t="s">
+        <v>778</v>
+      </c>
+      <c r="B394" t="s">
+        <v>779</v>
+      </c>
+      <c r="C394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A395" t="s">
+        <v>780</v>
+      </c>
+      <c r="B395" t="s">
+        <v>781</v>
+      </c>
+      <c r="C395">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A396" t="s">
+        <v>782</v>
+      </c>
+      <c r="B396" t="s">
+        <v>783</v>
+      </c>
+      <c r="C396">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A397" t="s">
+        <v>784</v>
+      </c>
+      <c r="B397" t="s">
+        <v>785</v>
+      </c>
+      <c r="C397">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A398" t="s">
+        <v>786</v>
+      </c>
+      <c r="B398" t="s">
+        <v>787</v>
+      </c>
+      <c r="C398">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A399" t="s">
+        <v>788</v>
+      </c>
+      <c r="B399" t="s">
+        <v>789</v>
+      </c>
+      <c r="C399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A400" t="s">
+        <v>790</v>
+      </c>
+      <c r="B400" t="s">
+        <v>791</v>
+      </c>
+      <c r="C400">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A401" t="s">
+        <v>792</v>
+      </c>
+      <c r="B401" t="s">
+        <v>793</v>
+      </c>
+      <c r="C401">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A402" t="s">
+        <v>794</v>
+      </c>
+      <c r="B402" t="s">
+        <v>795</v>
+      </c>
+      <c r="C402">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A403" t="s">
+        <v>796</v>
+      </c>
+      <c r="B403" t="s">
+        <v>797</v>
+      </c>
+      <c r="C403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A404" t="s">
+        <v>798</v>
+      </c>
+      <c r="B404" t="s">
+        <v>799</v>
+      </c>
+      <c r="C404">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A405" t="s">
+        <v>800</v>
+      </c>
+      <c r="B405" t="s">
+        <v>801</v>
+      </c>
+      <c r="C405">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A406" t="s">
+        <v>802</v>
+      </c>
+      <c r="B406" t="s">
+        <v>803</v>
+      </c>
+      <c r="C406">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A407" t="s">
+        <v>804</v>
+      </c>
+      <c r="B407" t="s">
+        <v>805</v>
+      </c>
+      <c r="C407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A408" t="s">
+        <v>806</v>
+      </c>
+      <c r="B408" t="s">
+        <v>807</v>
+      </c>
+      <c r="C408">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A409" t="s">
+        <v>808</v>
+      </c>
+      <c r="B409" t="s">
+        <v>809</v>
+      </c>
+      <c r="C409">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A410" t="s">
+        <v>810</v>
+      </c>
+      <c r="B410" t="s">
+        <v>811</v>
+      </c>
+      <c r="C410">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A411" t="s">
+        <v>812</v>
+      </c>
+      <c r="B411" t="s">
+        <v>813</v>
+      </c>
+      <c r="C411">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A412" t="s">
+        <v>814</v>
+      </c>
+      <c r="B412" t="s">
+        <v>815</v>
+      </c>
+      <c r="C412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A413" t="s">
+        <v>816</v>
+      </c>
+      <c r="B413" t="s">
+        <v>817</v>
+      </c>
+      <c r="C413">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A414" t="s">
+        <v>818</v>
+      </c>
+      <c r="B414" t="s">
+        <v>819</v>
+      </c>
+      <c r="C414">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A415" t="s">
+        <v>820</v>
+      </c>
+      <c r="B415" t="s">
+        <v>821</v>
+      </c>
+      <c r="C415">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A416" t="s">
+        <v>822</v>
+      </c>
+      <c r="B416" t="s">
+        <v>610</v>
+      </c>
+      <c r="C416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A417" t="s">
+        <v>823</v>
+      </c>
+      <c r="B417" t="s">
+        <v>824</v>
+      </c>
+      <c r="C417">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A418" t="s">
+        <v>825</v>
+      </c>
+      <c r="B418" t="s">
+        <v>826</v>
+      </c>
+      <c r="C418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A419" t="s">
+        <v>827</v>
+      </c>
+      <c r="B419" t="s">
+        <v>828</v>
+      </c>
+      <c r="C419">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A420" t="s">
+        <v>829</v>
+      </c>
+      <c r="B420" t="s">
+        <v>830</v>
+      </c>
+      <c r="C420">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A421" t="s">
+        <v>831</v>
+      </c>
+      <c r="B421" t="s">
+        <v>832</v>
+      </c>
+      <c r="C421">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A422" t="s">
+        <v>833</v>
+      </c>
+      <c r="B422" t="s">
+        <v>834</v>
+      </c>
+      <c r="C422">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A423" t="s">
+        <v>835</v>
+      </c>
+      <c r="B423" t="s">
+        <v>836</v>
+      </c>
+      <c r="C423">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A424" t="s">
+        <v>837</v>
+      </c>
+      <c r="B424" t="s">
+        <v>838</v>
+      </c>
+      <c r="C424">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A425" t="s">
+        <v>839</v>
+      </c>
+      <c r="B425" t="s">
+        <v>840</v>
+      </c>
+      <c r="C425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A426" t="s">
+        <v>841</v>
+      </c>
+      <c r="B426" t="s">
+        <v>842</v>
+      </c>
+      <c r="C426">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A427" t="s">
+        <v>843</v>
+      </c>
+      <c r="B427" t="s">
+        <v>844</v>
+      </c>
+      <c r="C427">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A428" t="s">
+        <v>845</v>
+      </c>
+      <c r="B428" t="s">
+        <v>846</v>
+      </c>
+      <c r="C428">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A429" t="s">
+        <v>847</v>
+      </c>
+      <c r="B429" t="s">
+        <v>848</v>
+      </c>
+      <c r="C429">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A430" t="s">
+        <v>849</v>
+      </c>
+      <c r="B430" t="s">
+        <v>850</v>
+      </c>
+      <c r="C430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A431" t="s">
+        <v>851</v>
+      </c>
+      <c r="B431" t="s">
+        <v>852</v>
+      </c>
+      <c r="C431">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A432" t="s">
+        <v>853</v>
+      </c>
+      <c r="B432" t="s">
+        <v>854</v>
+      </c>
+      <c r="C432">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A433" t="s">
+        <v>855</v>
+      </c>
+      <c r="B433" t="s">
+        <v>856</v>
+      </c>
+      <c r="C433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A434" t="s">
+        <v>857</v>
+      </c>
+      <c r="B434" t="s">
+        <v>858</v>
+      </c>
+      <c r="C434">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A435" t="s">
+        <v>859</v>
+      </c>
+      <c r="B435" t="s">
+        <v>860</v>
+      </c>
+      <c r="C435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A436" t="s">
+        <v>861</v>
+      </c>
+      <c r="B436" t="s">
+        <v>862</v>
+      </c>
+      <c r="C436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A437" t="s">
+        <v>863</v>
+      </c>
+      <c r="B437" t="s">
+        <v>864</v>
+      </c>
+      <c r="C437">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A438" t="s">
+        <v>865</v>
+      </c>
+      <c r="B438" t="s">
+        <v>866</v>
+      </c>
+      <c r="C438">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A439" t="s">
+        <v>867</v>
+      </c>
+      <c r="B439" t="s">
+        <v>868</v>
+      </c>
+      <c r="C439">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A440" t="s">
+        <v>869</v>
+      </c>
+      <c r="B440" t="s">
+        <v>870</v>
+      </c>
+      <c r="C440">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A441" t="s">
+        <v>871</v>
+      </c>
+      <c r="B441" t="s">
+        <v>872</v>
+      </c>
+      <c r="C441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A442" t="s">
+        <v>873</v>
+      </c>
+      <c r="B442" t="s">
+        <v>874</v>
+      </c>
+      <c r="C442">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A443" t="s">
+        <v>875</v>
+      </c>
+      <c r="B443" t="s">
+        <v>876</v>
+      </c>
+      <c r="C443">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A444" t="s">
+        <v>877</v>
+      </c>
+      <c r="B444" t="s">
+        <v>878</v>
+      </c>
+      <c r="C444">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A445" t="s">
+        <v>879</v>
+      </c>
+      <c r="B445" t="s">
+        <v>880</v>
+      </c>
+      <c r="C445">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A446" t="s">
+        <v>881</v>
+      </c>
+      <c r="B446" t="s">
+        <v>882</v>
+      </c>
+      <c r="C446">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A447" t="s">
+        <v>883</v>
+      </c>
+      <c r="B447" t="s">
+        <v>884</v>
+      </c>
+      <c r="C447">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A448" t="s">
+        <v>885</v>
+      </c>
+      <c r="B448" t="s">
+        <v>886</v>
+      </c>
+      <c r="C448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A449" t="s">
+        <v>887</v>
+      </c>
+      <c r="B449" t="s">
+        <v>888</v>
+      </c>
+      <c r="C449">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A450" t="s">
+        <v>889</v>
+      </c>
+      <c r="B450" t="s">
+        <v>890</v>
+      </c>
+      <c r="C450">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A451" t="s">
+        <v>891</v>
+      </c>
+      <c r="B451" t="s">
+        <v>892</v>
+      </c>
+      <c r="C451">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A452" t="s">
+        <v>893</v>
+      </c>
+      <c r="B452" t="s">
+        <v>842</v>
+      </c>
+      <c r="C452">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A453" t="s">
+        <v>894</v>
+      </c>
+      <c r="B453" t="s">
+        <v>895</v>
+      </c>
+      <c r="C453">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A454" t="s">
+        <v>896</v>
+      </c>
+      <c r="B454" t="s">
+        <v>897</v>
+      </c>
+      <c r="C454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A455" t="s">
+        <v>898</v>
+      </c>
+      <c r="B455" t="s">
+        <v>899</v>
+      </c>
+      <c r="C455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A456" t="s">
+        <v>900</v>
+      </c>
+      <c r="B456" t="s">
+        <v>901</v>
+      </c>
+      <c r="C456">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A457" t="s">
+        <v>902</v>
+      </c>
+      <c r="B457" t="s">
+        <v>903</v>
+      </c>
+      <c r="C457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A458" t="s">
+        <v>904</v>
+      </c>
+      <c r="B458" t="s">
+        <v>905</v>
+      </c>
+      <c r="C458">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A459" t="s">
+        <v>906</v>
+      </c>
+      <c r="B459" t="s">
+        <v>907</v>
+      </c>
+      <c r="C459">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
